--- a/ErgoLux/localization/Marathi (mr-IN) translation.xlsx
+++ b/ErgoLux/localization/Marathi (mr-IN) translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44993843R\source\repos\ErgoLux\ErgoLux\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AAA025-74AF-434D-BC8A-34F95876C184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B57271F-9E55-4CAF-B9BD-30C3A3D64A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="391">
   <si>
     <t>Key</t>
   </si>
@@ -1231,6 +1231,9 @@
   </si>
   <si>
     <t>Marathi (mr-IN)</t>
+  </si>
+  <si>
+    <t>Plots' context menu</t>
   </si>
 </sst>
 </file>
@@ -1295,10 +1298,10 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1335,8 +1338,8 @@
     <tableColumn id="4" xr3:uid="{EF2DE2BA-CD47-4AD4-ACE0-011CE073E5C4}" name="File" dataDxfId="4"/>
     <tableColumn id="1" xr3:uid="{15B209E7-880B-40F3-8D04-E1E0C18F3997}" name="Key" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{1492BE55-1C7C-4C02-9979-85AD6633F924}" name="Comment" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3A0B826D-ACD0-42A2-BC11-CDF70F40C5E5}" name="English" dataDxfId="1"/>
-    <tableColumn id="31" xr3:uid="{482B5252-4A88-4C9D-8D6A-67323FB06C35}" name="Marathi (mr-IN)" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{3A0B826D-ACD0-42A2-BC11-CDF70F40C5E5}" name="English" dataDxfId="0"/>
+    <tableColumn id="31" xr3:uid="{482B5252-4A88-4C9D-8D6A-67323FB06C35}" name="Marathi (mr-IN)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1648,8 +1651,8 @@
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" customWidth="1"/>
-    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="5" max="5" width="61.140625" customWidth="1"/>
+    <col min="6" max="6" width="60.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
@@ -1689,21 +1692,25 @@
       <c r="C3" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>390</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>363</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>381</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>365</v>
       </c>
       <c r="F4" s="4"/>
@@ -1715,8 +1722,10 @@
       <c r="C5" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>367</v>
       </c>
       <c r="F5" s="4"/>
@@ -1728,8 +1737,10 @@
       <c r="C6" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>369</v>
       </c>
       <c r="F6" s="4"/>
@@ -1741,8 +1752,10 @@
       <c r="C7" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>371</v>
       </c>
       <c r="F7" s="4"/>
@@ -1754,8 +1767,10 @@
       <c r="C8" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>373</v>
       </c>
       <c r="F8" s="4"/>
@@ -1767,8 +1782,10 @@
       <c r="C9" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>375</v>
       </c>
       <c r="F9" s="4"/>
@@ -1780,8 +1797,10 @@
       <c r="C10" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>377</v>
       </c>
       <c r="F10" s="4"/>
@@ -1793,8 +1812,10 @@
       <c r="C11" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>379</v>
       </c>
       <c r="F11" s="4"/>
@@ -1809,7 +1830,7 @@
       <c r="D12" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>159</v>
       </c>
       <c r="F12" s="4"/>
@@ -1824,12 +1845,12 @@
       <c r="D13" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>161</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>382</v>
       </c>
@@ -1839,7 +1860,7 @@
       <c r="D14" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>383</v>
       </c>
       <c r="F14" s="4"/>
@@ -2392,9 +2413,7 @@
       <c r="E56" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -2446,7 +2465,9 @@
       <c r="E60" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
@@ -2524,7 +2545,9 @@
       <c r="E66" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F66" s="1"/>
+      <c r="F66" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">

--- a/ErgoLux/localization/Marathi (mr-IN) translation.xlsx
+++ b/ErgoLux/localization/Marathi (mr-IN) translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="449">
   <si>
     <t>File</t>
   </si>
@@ -287,16 +287,25 @@
     <t>Plot ratios</t>
   </si>
   <si>
+    <t>अनुपात</t>
+  </si>
+  <si>
     <t>strChkPlotRaw</t>
   </si>
   <si>
     <t>Plot raw data</t>
   </si>
   <si>
+    <t>अकस्मिक आंकडे चित्रित</t>
+  </si>
+  <si>
     <t>strChkPower</t>
   </si>
   <si>
     <t>Power (dB)</t>
+  </si>
+  <si>
+    <t>प्रताप(डेसिबेल)</t>
   </si>
   <si>
     <t>strDlgReset</t>
@@ -306,10 +315,17 @@
 to their default values?</t>
   </si>
   <si>
+    <t>तुम्हाला सर्व फील्डस त्यांच्या मूळ मूल्ये रिसेट करायच्या आहेत का?</t>
+  </si>
+  <si>
     <t>strDlgResetTitle</t>
   </si>
   <si>
     <t>Reset settings?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सेटिंग्ज रिसेट
+</t>
   </si>
   <si>
     <t>strErrorDeserialize</t>
@@ -320,151 +336,231 @@
 Default values will be used instead.</t>
   </si>
   <si>
+    <t>सेटिंग्ज फ़ाइल लोड करताना त्रुटी आली.
+{0}
+मूळ मूल्ये वापरली जाईल.</t>
+  </si>
+  <si>
     <t>strErrorDeserializeTitle</t>
   </si>
   <si>
     <t>Error</t>
   </si>
   <si>
+    <t>त्रुटी</t>
+  </si>
+  <si>
     <t>strFileHeader01</t>
   </si>
   <si>
     <t>ErgoLux data</t>
   </si>
   <si>
+    <t>एर्गोलक्झ डेटा</t>
+  </si>
+  <si>
     <t>strFileHeader02</t>
   </si>
   <si>
     <t>Start time</t>
   </si>
   <si>
+    <t>सुरुवातीची वेळ</t>
+  </si>
+  <si>
     <t>strFileHeader03</t>
   </si>
   <si>
     <t>End time</t>
   </si>
   <si>
+    <t>शेवटची वेळ</t>
+  </si>
+  <si>
     <t>strFileHeader04</t>
   </si>
   <si>
     <t>Total measuring time</t>
   </si>
   <si>
+    <t>एकूण मापणीची वेळ</t>
+  </si>
+  <si>
     <t>strFileHeader05</t>
   </si>
   <si>
     <t>Number of sensors</t>
   </si>
   <si>
+    <t>सेन्सर्सची संख्या</t>
+  </si>
+  <si>
     <t>strFileHeader06</t>
   </si>
   <si>
     <t>Number of data points</t>
   </si>
   <si>
+    <t>डेटा पॉइंट्सची संख्या</t>
+  </si>
+  <si>
     <t>strFileHeader07</t>
   </si>
   <si>
     <t>Sampling frequency</t>
   </si>
   <si>
+    <t>नमूना आवृत्ती</t>
+  </si>
+  <si>
     <t>strFileHeader08</t>
   </si>
   <si>
     <t>Sensor #</t>
   </si>
   <si>
+    <t>सेन्सर #</t>
+  </si>
+  <si>
     <t>strFileHeader09</t>
   </si>
   <si>
     <t>Maximum</t>
   </si>
   <si>
+    <t>अधिकतम</t>
+  </si>
+  <si>
     <t>strFileHeader10</t>
   </si>
   <si>
     <t>Average</t>
   </si>
   <si>
+    <t>सरासरी</t>
+  </si>
+  <si>
     <t>strFileHeader11</t>
   </si>
   <si>
     <t>Minimum</t>
   </si>
   <si>
+    <t>न्यूनतम</t>
+  </si>
+  <si>
     <t>strFileHeader12</t>
   </si>
   <si>
     <t>Min/Average</t>
   </si>
   <si>
+    <t>न्यून/सरासरी</t>
+  </si>
+  <si>
     <t>strFileHeader13</t>
   </si>
   <si>
     <t>Min/Max</t>
   </si>
   <si>
+    <t>न्यून/अधिकतम</t>
+  </si>
+  <si>
     <t>strFileHeader14</t>
   </si>
   <si>
     <t>Average/Max</t>
   </si>
   <si>
+    <t>सरासरी/अधिकतम</t>
+  </si>
+  <si>
     <t>strFileHeader15</t>
   </si>
   <si>
+    <t>सरासर</t>
+  </si>
+  <si>
     <t>strFileHeader16</t>
   </si>
   <si>
     <t>Illuminance</t>
   </si>
   <si>
+    <t>प्रकाशिकरण</t>
+  </si>
+  <si>
     <t>strFileHeader17</t>
   </si>
   <si>
     <t>Missing an empty line.</t>
   </si>
   <si>
+    <t>रिक्त पंक्ती गूम आहे</t>
+  </si>
+  <si>
     <t>strFileHeader18</t>
   </si>
   <si>
     <t>Missing column headers (series names).</t>
   </si>
   <si>
+    <t>स्तंभ मुख्यशीर्षक (श्रृंगार्यांच्या नावाची)</t>
+  </si>
+  <si>
     <t>strFileHeader19</t>
   </si>
   <si>
     <t>days, day, days</t>
   </si>
   <si>
+    <t>दिवस, दिवस, दिवस</t>
+  </si>
+  <si>
     <t>strFileHeader20</t>
   </si>
   <si>
     <t>hours, hour, hours</t>
   </si>
   <si>
+    <t>तास, तास, तास</t>
+  </si>
+  <si>
     <t>strFileHeader21</t>
   </si>
   <si>
     <t>minutes, minute, minutes</t>
   </si>
   <si>
+    <t>मिनिट, मिनिट, मिनिट</t>
+  </si>
+  <si>
     <t>strFileHeader22</t>
   </si>
   <si>
     <t>seconds, second, seconds</t>
   </si>
   <si>
+    <t>सेकंद, सेकंद, सेकंद</t>
+  </si>
+  <si>
     <t>strFileHeader23</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>आणि</t>
+  </si>
+  <si>
     <t>strFileHeader24</t>
   </si>
   <si>
     <t>milliseconds, millisecond, milliseconds</t>
+  </si>
+  <si>
+    <t>मिलिसेकंद, मिलिसेकंद, मिलिसेकंद</t>
   </si>
   <si>
     <t>strFileHeaderColon</t>
@@ -953,6 +1049,10 @@
   </si>
   <si>
     <t>strMsgBoxReset</t>
+  </si>
+  <si>
+    <t>Do you want to reset all fields
+to their default values?</t>
   </si>
   <si>
     <t>strMsgBoxResetTitle</t>
@@ -1347,18 +1447,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1368,16 +1462,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1701,40 +1789,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="36.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="61.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="60.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="7" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="7" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="7" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="7" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="36.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="34.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="61.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="60.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="5" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -1743,7 +1831,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="2"/>
@@ -1787,7 +1875,7 @@
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="2"/>
@@ -1821,19 +1909,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="3"/>
@@ -1867,19 +1955,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="47.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="2"/>
@@ -1913,19 +2001,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="2"/>
@@ -1959,19 +2047,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="2"/>
@@ -2005,19 +2093,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="2"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="2"/>
@@ -2051,19 +2139,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="2"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="2"/>
@@ -2097,19 +2185,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="2"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="2"/>
@@ -2143,19 +2231,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="2"/>
@@ -2189,19 +2277,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="2"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="2"/>
@@ -2235,19 +2323,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2"/>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="2"/>
@@ -2279,21 +2367,21 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
       <c r="A13" s="2"/>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="2"/>
@@ -2325,21 +2413,21 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="98.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="102.75">
       <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="2"/>
@@ -2371,21 +2459,21 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="3"/>
@@ -2417,21 +2505,21 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="3"/>
@@ -2463,19 +2551,19 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G17" s="3"/>
@@ -2507,19 +2595,19 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="3"/>
@@ -2551,19 +2639,19 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="3"/>
@@ -2595,19 +2683,19 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G20" s="3"/>
@@ -2639,19 +2727,19 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="3"/>
@@ -2685,17 +2773,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="3"/>
@@ -2729,17 +2817,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="3"/>
@@ -2773,17 +2861,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G24" s="3"/>
@@ -2817,17 +2905,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G25" s="3"/>
@@ -2861,17 +2949,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G26" s="3"/>
@@ -2905,17 +2993,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G27" s="3"/>
@@ -2949,17 +3037,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G28" s="3"/>
@@ -2993,17 +3081,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -3035,17 +3125,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -3077,17 +3169,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="5"/>
+      <c r="B31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -3119,17 +3213,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="5"/>
+      <c r="B32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -3161,17 +3257,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="5"/>
+      <c r="B33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -3203,17 +3301,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="5"/>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -3245,17 +3345,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="5"/>
+      <c r="B35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -3287,17 +3389,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="5"/>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -3329,17 +3433,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="5"/>
+      <c r="B37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -3371,17 +3477,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="5"/>
+      <c r="B38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -3413,17 +3521,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="5"/>
+      <c r="B39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -3455,17 +3565,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="5"/>
+      <c r="B40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -3497,17 +3609,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="5"/>
+      <c r="B41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -3539,17 +3653,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="5"/>
+      <c r="B42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -3581,17 +3697,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F43" s="5"/>
+      <c r="B43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -3623,17 +3741,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="5"/>
+      <c r="B44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -3665,17 +3785,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="5"/>
+      <c r="B45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -3707,17 +3829,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="5"/>
+      <c r="B46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -3749,17 +3873,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F47" s="5"/>
+      <c r="B47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -3791,17 +3917,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48" s="5"/>
+      <c r="B48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -3833,17 +3961,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="5"/>
+      <c r="B49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -3875,17 +4005,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="5"/>
+      <c r="B50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -3917,17 +4049,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A51" s="3"/>
-      <c r="B51" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F51" s="5"/>
+      <c r="B51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -3959,17 +4093,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A52" s="3"/>
-      <c r="B52" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F52" s="5"/>
+      <c r="B52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -4001,17 +4137,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" s="5"/>
+      <c r="B53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -4043,17 +4181,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" s="5"/>
+      <c r="B54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -4085,17 +4225,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F55" s="5"/>
+      <c r="B55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -4127,17 +4269,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F56" s="5"/>
+      <c r="B56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
@@ -4169,17 +4313,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="5"/>
+      <c r="B57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -4211,17 +4357,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F58" s="5"/>
+      <c r="B58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -4253,17 +4401,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F59" s="5"/>
+      <c r="B59" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -4295,18 +4445,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>150</v>
+      <c r="B60" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -4339,17 +4489,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F61" s="5"/>
+      <c r="B61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -4381,17 +4531,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F62" s="5"/>
+      <c r="B62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -4423,17 +4573,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F63" s="5"/>
+      <c r="B63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -4465,17 +4615,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F64" s="5"/>
+      <c r="B64" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -4507,17 +4657,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F65" s="5"/>
+      <c r="B65" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -4549,18 +4699,18 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A66" s="3"/>
-      <c r="B66" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>162</v>
+      <c r="B66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -4593,17 +4743,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A67" s="3"/>
-      <c r="B67" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F67" s="5"/>
+      <c r="B67" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -4635,17 +4785,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A68" s="3"/>
-      <c r="B68" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F68" s="5"/>
+      <c r="B68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -4677,17 +4827,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A69" s="3"/>
-      <c r="B69" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F69" s="5"/>
+      <c r="B69" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -4719,17 +4869,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A70" s="3"/>
-      <c r="B70" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F70" s="5"/>
+      <c r="B70" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
@@ -4761,17 +4911,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A71" s="3"/>
-      <c r="B71" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F71" s="5"/>
+      <c r="B71" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -4803,17 +4953,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A72" s="3"/>
-      <c r="B72" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F72" s="5"/>
+      <c r="B72" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
@@ -4845,17 +4995,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A73" s="3"/>
-      <c r="B73" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F73" s="5"/>
+      <c r="B73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -4887,17 +5037,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A74" s="3"/>
-      <c r="B74" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F74" s="5"/>
+      <c r="B74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -4929,17 +5079,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A75" s="3"/>
-      <c r="B75" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F75" s="5"/>
+      <c r="B75" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
@@ -4971,17 +5121,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A76" s="3"/>
-      <c r="B76" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5" t="s">
+      <c r="B76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F76" s="5"/>
+      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -5013,17 +5163,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A77" s="3"/>
-      <c r="B77" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F77" s="5"/>
+      <c r="B77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -5055,17 +5205,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A78" s="3"/>
-      <c r="B78" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F78" s="5"/>
+      <c r="B78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -5097,17 +5247,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A79" s="3"/>
-      <c r="B79" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F79" s="5"/>
+      <c r="B79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -5139,17 +5289,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A80" s="3"/>
-      <c r="B80" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F80" s="5"/>
+      <c r="B80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -5181,17 +5331,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A81" s="3"/>
-      <c r="B81" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F81" s="5"/>
+      <c r="B81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -5223,17 +5373,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A82" s="3"/>
-      <c r="B82" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="F82" s="5"/>
+      <c r="B82" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -5265,17 +5415,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A83" s="3"/>
-      <c r="B83" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F83" s="5"/>
+      <c r="B83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -5307,17 +5457,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A84" s="3"/>
-      <c r="B84" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F84" s="5"/>
+      <c r="B84" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -5349,17 +5499,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A85" s="3"/>
-      <c r="B85" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F85" s="5"/>
+      <c r="B85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -5391,17 +5541,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A86" s="3"/>
-      <c r="B86" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F86" s="5"/>
+      <c r="B86" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -5433,17 +5583,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A87" s="3"/>
-      <c r="B87" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F87" s="5"/>
+      <c r="B87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -5475,17 +5625,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A88" s="3"/>
-      <c r="B88" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F88" s="5"/>
+      <c r="B88" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -5517,17 +5667,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A89" s="3"/>
-      <c r="B89" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F89" s="5"/>
+      <c r="B89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -5559,17 +5709,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A90" s="3"/>
-      <c r="B90" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F90" s="5"/>
+      <c r="B90" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -5601,17 +5751,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A91" s="3"/>
-      <c r="B91" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F91" s="5"/>
+      <c r="B91" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -5643,17 +5793,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A92" s="3"/>
-      <c r="B92" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F92" s="5"/>
+      <c r="B92" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -5685,17 +5835,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A93" s="3"/>
-      <c r="B93" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F93" s="5"/>
+      <c r="B93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -5727,17 +5877,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A94" s="3"/>
-      <c r="B94" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F94" s="5"/>
+      <c r="B94" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -5769,17 +5919,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A95" s="3"/>
-      <c r="B95" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F95" s="5"/>
+      <c r="B95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -5811,17 +5961,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A96" s="3"/>
-      <c r="B96" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F96" s="5"/>
+      <c r="B96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -5853,17 +6003,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A97" s="3"/>
-      <c r="B97" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F97" s="5"/>
+      <c r="B97" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -5895,17 +6045,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A98" s="3"/>
-      <c r="B98" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F98" s="5"/>
+      <c r="B98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -5937,17 +6087,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A99" s="3"/>
-      <c r="B99" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F99" s="5"/>
+      <c r="B99" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -5979,17 +6129,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A100" s="3"/>
-      <c r="B100" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F100" s="5"/>
+      <c r="B100" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -6021,17 +6171,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A101" s="3"/>
-      <c r="B101" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F101" s="5"/>
+      <c r="B101" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
@@ -6063,17 +6213,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A102" s="3"/>
-      <c r="B102" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F102" s="5"/>
+      <c r="B102" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -6105,17 +6255,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A103" s="3"/>
-      <c r="B103" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F103" s="5"/>
+      <c r="B103" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -6147,17 +6297,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A104" s="3"/>
-      <c r="B104" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F104" s="5"/>
+      <c r="B104" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -6189,17 +6339,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A105" s="3"/>
-      <c r="B105" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F105" s="5"/>
+      <c r="B105" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -6231,17 +6381,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A106" s="3"/>
-      <c r="B106" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F106" s="5"/>
+      <c r="B106" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -6273,17 +6423,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A107" s="3"/>
-      <c r="B107" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F107" s="5"/>
+      <c r="B107" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -6315,17 +6465,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A108" s="3"/>
-      <c r="B108" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F108" s="5"/>
+      <c r="B108" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -6357,17 +6507,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A109" s="3"/>
-      <c r="B109" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F109" s="5"/>
+      <c r="B109" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -6399,17 +6549,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A110" s="3"/>
-      <c r="B110" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F110" s="5"/>
+      <c r="B110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -6441,17 +6591,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A111" s="3"/>
-      <c r="B111" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="F111" s="5"/>
+      <c r="B111" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -6483,17 +6633,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A112" s="3"/>
-      <c r="B112" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F112" s="5"/>
+      <c r="B112" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -6525,17 +6675,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A113" s="3"/>
-      <c r="B113" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F113" s="5"/>
+      <c r="B113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -6567,17 +6717,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A114" s="3"/>
-      <c r="B114" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F114" s="5"/>
+      <c r="B114" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -6609,17 +6759,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A115" s="3"/>
-      <c r="B115" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F115" s="5"/>
+      <c r="B115" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -6651,17 +6801,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A116" s="3"/>
-      <c r="B116" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F116" s="5"/>
+      <c r="B116" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -6693,17 +6843,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A117" s="3"/>
-      <c r="B117" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F117" s="5"/>
+      <c r="B117" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -6735,17 +6885,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A118" s="3"/>
-      <c r="B118" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F118" s="5"/>
+      <c r="B118" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -6777,17 +6927,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A119" s="3"/>
-      <c r="B119" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F119" s="5"/>
+      <c r="B119" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -6819,17 +6969,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A120" s="3"/>
-      <c r="B120" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F120" s="5"/>
+      <c r="B120" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -6861,17 +7011,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A121" s="3"/>
-      <c r="B121" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F121" s="5"/>
+      <c r="B121" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -6903,17 +7053,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A122" s="3"/>
-      <c r="B122" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F122" s="5"/>
+      <c r="B122" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -6945,17 +7095,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A123" s="3"/>
-      <c r="B123" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F123" s="5"/>
+      <c r="B123" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -6987,17 +7137,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A124" s="3"/>
-      <c r="B124" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F124" s="5"/>
+      <c r="B124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -7029,17 +7179,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A125" s="3"/>
-      <c r="B125" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F125" s="5"/>
+      <c r="B125" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
@@ -7071,17 +7221,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A126" s="3"/>
-      <c r="B126" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F126" s="5"/>
+      <c r="B126" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -7113,17 +7263,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A127" s="3"/>
-      <c r="B127" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F127" s="5"/>
+      <c r="B127" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -7155,17 +7305,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A128" s="3"/>
-      <c r="B128" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F128" s="5"/>
+      <c r="B128" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -7197,17 +7347,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A129" s="3"/>
-      <c r="B129" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F129" s="5"/>
+      <c r="B129" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -7239,17 +7389,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A130" s="3"/>
-      <c r="B130" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F130" s="5"/>
+      <c r="B130" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -7281,17 +7431,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A131" s="3"/>
-      <c r="B131" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F131" s="5"/>
+      <c r="B131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -7323,17 +7473,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A132" s="3"/>
-      <c r="B132" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F132" s="5"/>
+      <c r="B132" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -7365,17 +7515,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A133" s="3"/>
-      <c r="B133" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F133" s="5"/>
+      <c r="B133" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
@@ -7407,17 +7557,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A134" s="3"/>
-      <c r="B134" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F134" s="5"/>
+      <c r="B134" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
@@ -7449,17 +7599,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A135" s="3"/>
-      <c r="B135" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F135" s="5"/>
+      <c r="B135" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -7491,17 +7641,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A136" s="3"/>
-      <c r="B136" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F136" s="5"/>
+      <c r="B136" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
@@ -7533,17 +7683,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A137" s="3"/>
-      <c r="B137" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F137" s="5"/>
+      <c r="B137" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -7575,17 +7725,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A138" s="3"/>
-      <c r="B138" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F138" s="5"/>
+      <c r="B138" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
@@ -7617,17 +7767,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A139" s="3"/>
-      <c r="B139" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F139" s="5"/>
+      <c r="B139" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
@@ -7659,17 +7809,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A140" s="3"/>
-      <c r="B140" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F140" s="5"/>
+      <c r="B140" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
@@ -7701,17 +7851,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A141" s="3"/>
-      <c r="B141" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F141" s="5"/>
+      <c r="B141" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
@@ -7743,17 +7893,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A142" s="3"/>
-      <c r="B142" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F142" s="5"/>
+      <c r="B142" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
@@ -7785,17 +7935,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A143" s="3"/>
-      <c r="B143" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F143" s="5"/>
+      <c r="B143" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
@@ -7827,17 +7977,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A144" s="3"/>
-      <c r="B144" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="D144" s="5"/>
-      <c r="E144" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F144" s="5"/>
+      <c r="B144" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
@@ -7869,17 +8019,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A145" s="3"/>
-      <c r="B145" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D145" s="5"/>
-      <c r="E145" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F145" s="5"/>
+      <c r="B145" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
@@ -7911,17 +8061,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A146" s="3"/>
-      <c r="B146" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F146" s="5"/>
+      <c r="B146" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
@@ -7953,17 +8103,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A147" s="3"/>
-      <c r="B147" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F147" s="5"/>
+      <c r="B147" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
@@ -7995,17 +8145,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A148" s="3"/>
-      <c r="B148" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F148" s="5"/>
+      <c r="B148" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
@@ -8037,17 +8187,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A149" s="3"/>
-      <c r="B149" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F149" s="5"/>
+      <c r="B149" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
@@ -8079,17 +8229,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A150" s="3"/>
-      <c r="B150" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F150" s="5"/>
+      <c r="B150" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
@@ -8121,17 +8271,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A151" s="3"/>
-      <c r="B151" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F151" s="5"/>
+      <c r="B151" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
@@ -8163,17 +8313,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A152" s="3"/>
-      <c r="B152" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F152" s="5"/>
+      <c r="B152" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
@@ -8205,17 +8355,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A153" s="3"/>
-      <c r="B153" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F153" s="5"/>
+      <c r="B153" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
@@ -8247,17 +8397,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A154" s="3"/>
-      <c r="B154" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="F154" s="5"/>
+      <c r="B154" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
@@ -8289,17 +8439,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A155" s="3"/>
-      <c r="B155" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F155" s="5"/>
+      <c r="B155" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
@@ -8331,17 +8481,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A156" s="3"/>
-      <c r="B156" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F156" s="5"/>
+      <c r="B156" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
@@ -8373,17 +8523,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A157" s="3"/>
-      <c r="B157" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F157" s="5"/>
+      <c r="B157" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
@@ -8415,17 +8565,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A158" s="3"/>
-      <c r="B158" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F158" s="5"/>
+      <c r="B158" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -8457,17 +8607,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A159" s="3"/>
-      <c r="B159" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="F159" s="5"/>
+      <c r="B159" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
@@ -8499,17 +8649,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A160" s="3"/>
-      <c r="B160" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F160" s="5"/>
+      <c r="B160" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -8541,17 +8691,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A161" s="3"/>
-      <c r="B161" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F161" s="5"/>
+      <c r="B161" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
@@ -8583,17 +8733,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A162" s="3"/>
-      <c r="B162" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F162" s="5"/>
+      <c r="B162" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
@@ -8625,17 +8775,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A163" s="3"/>
-      <c r="B163" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="F163" s="5"/>
+      <c r="B163" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
@@ -8667,17 +8817,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A164" s="3"/>
-      <c r="B164" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F164" s="5"/>
+      <c r="B164" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
@@ -8709,17 +8859,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A165" s="3"/>
-      <c r="B165" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="F165" s="5"/>
+      <c r="B165" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
@@ -8751,17 +8901,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A166" s="3"/>
-      <c r="B166" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F166" s="5"/>
+      <c r="B166" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
@@ -8793,17 +8943,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A167" s="3"/>
-      <c r="B167" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="F167" s="5"/>
+      <c r="B167" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
@@ -8835,17 +8985,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A168" s="3"/>
-      <c r="B168" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F168" s="5"/>
+      <c r="B168" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
@@ -8877,17 +9027,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A169" s="3"/>
-      <c r="B169" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F169" s="5"/>
+      <c r="B169" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
@@ -8919,17 +9069,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A170" s="3"/>
-      <c r="B170" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F170" s="5"/>
+      <c r="B170" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
@@ -8961,17 +9111,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A171" s="3"/>
-      <c r="B171" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F171" s="5"/>
+      <c r="B171" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
@@ -9003,17 +9153,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A172" s="3"/>
-      <c r="B172" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="F172" s="5"/>
+      <c r="B172" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
@@ -9045,17 +9195,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A173" s="3"/>
-      <c r="B173" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F173" s="5"/>
+      <c r="B173" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
@@ -9087,17 +9237,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A174" s="3"/>
-      <c r="B174" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D174" s="5"/>
-      <c r="E174" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="F174" s="5"/>
+      <c r="B174" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
@@ -9129,17 +9279,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A175" s="3"/>
-      <c r="B175" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="F175" s="5"/>
+      <c r="B175" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
@@ -9171,17 +9321,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A176" s="3"/>
-      <c r="B176" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5" t="s">
+      <c r="B176" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F176" s="5"/>
+      <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
@@ -9213,17 +9363,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A177" s="3"/>
-      <c r="B177" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="F177" s="5"/>
+      <c r="B177" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
@@ -9255,17 +9405,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A178" s="3"/>
-      <c r="B178" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="D178" s="5"/>
-      <c r="E178" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="F178" s="5"/>
+      <c r="B178" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
@@ -9297,17 +9447,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A179" s="3"/>
-      <c r="B179" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D179" s="5"/>
-      <c r="E179" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F179" s="5"/>
+      <c r="B179" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
@@ -9339,17 +9489,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A180" s="3"/>
-      <c r="B180" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D180" s="5"/>
-      <c r="E180" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="F180" s="5"/>
+      <c r="B180" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
@@ -9381,17 +9531,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A181" s="3"/>
-      <c r="B181" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="F181" s="5"/>
+      <c r="B181" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
@@ -9423,17 +9573,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A182" s="3"/>
-      <c r="B182" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5" t="s">
+      <c r="B182" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F182" s="5"/>
+      <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
@@ -9441,9 +9591,9 @@
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
-      <c r="N182" s="5"/>
+      <c r="N182" s="3"/>
       <c r="O182" s="3"/>
-      <c r="P182" s="5"/>
+      <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
       <c r="R182" s="3"/>
       <c r="S182" s="3"/>
@@ -9465,17 +9615,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A183" s="3"/>
-      <c r="B183" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F183" s="5"/>
+      <c r="B183" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
@@ -9507,59 +9657,59 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A184" s="3"/>
-      <c r="B184" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D184" s="5"/>
-      <c r="E184" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="F184" s="5"/>
+      <c r="B184" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D184" s="3"/>
+      <c r="E184" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F184" s="3"/>
       <c r="G184" s="3"/>
-      <c r="H184" s="5"/>
+      <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
-      <c r="N184" s="5"/>
+      <c r="N184" s="3"/>
       <c r="O184" s="3"/>
-      <c r="P184" s="5"/>
+      <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
       <c r="R184" s="3"/>
       <c r="S184" s="3"/>
       <c r="T184" s="3"/>
       <c r="U184" s="3"/>
-      <c r="V184" s="5"/>
+      <c r="V184" s="3"/>
       <c r="W184" s="3"/>
-      <c r="X184" s="5"/>
+      <c r="X184" s="3"/>
       <c r="Y184" s="3"/>
-      <c r="Z184" s="5"/>
+      <c r="Z184" s="3"/>
       <c r="AA184" s="3"/>
-      <c r="AB184" s="5"/>
+      <c r="AB184" s="3"/>
       <c r="AC184" s="3"/>
-      <c r="AD184" s="5"/>
+      <c r="AD184" s="3"/>
       <c r="AE184" s="3"/>
-      <c r="AF184" s="5"/>
+      <c r="AF184" s="3"/>
       <c r="AG184" s="3"/>
       <c r="AH184" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A185" s="3"/>
-      <c r="B185" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="F185" s="5"/>
+      <c r="B185" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
@@ -9591,59 +9741,59 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A186" s="3"/>
-      <c r="B186" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D186" s="5"/>
-      <c r="E186" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F186" s="5"/>
+      <c r="B186" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F186" s="3"/>
       <c r="G186" s="3"/>
-      <c r="H186" s="5"/>
+      <c r="H186" s="3"/>
       <c r="I186" s="3"/>
-      <c r="J186" s="5"/>
+      <c r="J186" s="3"/>
       <c r="K186" s="3"/>
-      <c r="L186" s="5"/>
+      <c r="L186" s="3"/>
       <c r="M186" s="3"/>
-      <c r="N186" s="5"/>
+      <c r="N186" s="3"/>
       <c r="O186" s="3"/>
-      <c r="P186" s="5"/>
+      <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
-      <c r="R186" s="5"/>
+      <c r="R186" s="3"/>
       <c r="S186" s="3"/>
-      <c r="T186" s="5"/>
+      <c r="T186" s="3"/>
       <c r="U186" s="3"/>
-      <c r="V186" s="5"/>
+      <c r="V186" s="3"/>
       <c r="W186" s="3"/>
-      <c r="X186" s="5"/>
+      <c r="X186" s="3"/>
       <c r="Y186" s="3"/>
-      <c r="Z186" s="5"/>
+      <c r="Z186" s="3"/>
       <c r="AA186" s="3"/>
-      <c r="AB186" s="5"/>
+      <c r="AB186" s="3"/>
       <c r="AC186" s="3"/>
-      <c r="AD186" s="5"/>
+      <c r="AD186" s="3"/>
       <c r="AE186" s="3"/>
-      <c r="AF186" s="5"/>
+      <c r="AF186" s="3"/>
       <c r="AG186" s="3"/>
-      <c r="AH186" s="5"/>
+      <c r="AH186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A187" s="3"/>
-      <c r="B187" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="D187" s="5"/>
-      <c r="E187" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="F187" s="5"/>
+      <c r="B187" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
@@ -9675,17 +9825,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A188" s="3"/>
-      <c r="B188" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D188" s="5"/>
-      <c r="E188" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F188" s="5"/>
+      <c r="B188" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
@@ -9717,17 +9867,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A189" s="3"/>
-      <c r="B189" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="F189" s="5"/>
+      <c r="B189" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
@@ -9759,17 +9909,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A190" s="3"/>
-      <c r="B190" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="F190" s="5"/>
+      <c r="B190" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
@@ -9801,17 +9951,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A191" s="3"/>
-      <c r="B191" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="F191" s="5"/>
+      <c r="B191" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
@@ -9843,17 +9993,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A192" s="3"/>
-      <c r="B192" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="F192" s="5"/>
+      <c r="B192" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
@@ -9885,17 +10035,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A193" s="3"/>
-      <c r="B193" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="F193" s="5"/>
+      <c r="B193" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
@@ -9927,17 +10077,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A194" s="3"/>
-      <c r="B194" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F194" s="5"/>
+      <c r="B194" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
@@ -9969,17 +10119,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A195" s="3"/>
-      <c r="B195" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F195" s="5"/>
+      <c r="B195" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
@@ -10011,17 +10161,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A196" s="3"/>
-      <c r="B196" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F196" s="5"/>
+      <c r="B196" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
@@ -10053,17 +10203,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A197" s="3"/>
-      <c r="B197" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F197" s="5"/>
+      <c r="B197" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
@@ -10095,17 +10245,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A198" s="3"/>
-      <c r="B198" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="F198" s="5"/>
+      <c r="B198" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
@@ -10137,17 +10287,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A199" s="3"/>
-      <c r="B199" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="F199" s="5"/>
+      <c r="B199" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
@@ -10179,37 +10329,37 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A200" s="3"/>
-      <c r="B200" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F200" s="5"/>
+      <c r="B200" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
-      <c r="L200" s="5"/>
+      <c r="L200" s="3"/>
       <c r="M200" s="3"/>
-      <c r="N200" s="5"/>
+      <c r="N200" s="3"/>
       <c r="O200" s="3"/>
-      <c r="P200" s="5"/>
+      <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
       <c r="R200" s="3"/>
       <c r="S200" s="3"/>
       <c r="T200" s="3"/>
       <c r="U200" s="3"/>
-      <c r="V200" s="5"/>
+      <c r="V200" s="3"/>
       <c r="W200" s="3"/>
-      <c r="X200" s="5"/>
+      <c r="X200" s="3"/>
       <c r="Y200" s="3"/>
-      <c r="Z200" s="5"/>
+      <c r="Z200" s="3"/>
       <c r="AA200" s="3"/>
       <c r="AB200" s="3"/>
       <c r="AC200" s="3"/>
@@ -10221,17 +10371,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A201" s="3"/>
-      <c r="B201" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D201" s="5"/>
-      <c r="E201" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="F201" s="5"/>
+      <c r="B201" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
@@ -10263,39 +10413,39 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A202" s="3"/>
-      <c r="B202" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="F202" s="5"/>
+      <c r="B202" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F202" s="3"/>
       <c r="G202" s="3"/>
-      <c r="H202" s="5"/>
+      <c r="H202" s="3"/>
       <c r="I202" s="3"/>
-      <c r="J202" s="5"/>
+      <c r="J202" s="3"/>
       <c r="K202" s="3"/>
-      <c r="L202" s="5"/>
+      <c r="L202" s="3"/>
       <c r="M202" s="3"/>
-      <c r="N202" s="5"/>
+      <c r="N202" s="3"/>
       <c r="O202" s="3"/>
-      <c r="P202" s="5"/>
+      <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
-      <c r="R202" s="5"/>
+      <c r="R202" s="3"/>
       <c r="S202" s="3"/>
-      <c r="T202" s="5"/>
+      <c r="T202" s="3"/>
       <c r="U202" s="3"/>
-      <c r="V202" s="5"/>
+      <c r="V202" s="3"/>
       <c r="W202" s="3"/>
-      <c r="X202" s="5"/>
+      <c r="X202" s="3"/>
       <c r="Y202" s="3"/>
-      <c r="Z202" s="5"/>
+      <c r="Z202" s="3"/>
       <c r="AA202" s="3"/>
-      <c r="AB202" s="5"/>
+      <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
       <c r="AD202" s="3"/>
       <c r="AE202" s="3"/>
@@ -10305,17 +10455,17 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A203" s="3"/>
-      <c r="B203" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D203" s="5"/>
-      <c r="E203" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F203" s="5"/>
+      <c r="B203" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
@@ -10351,7 +10501,7 @@
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="3"/>
-      <c r="F204" s="4"/>
+      <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="3"/>
       <c r="I204" s="2"/>
@@ -10387,7 +10537,7 @@
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="3"/>
-      <c r="F205" s="4"/>
+      <c r="F205" s="2"/>
       <c r="G205" s="2"/>
       <c r="H205" s="3"/>
       <c r="I205" s="2"/>
@@ -10423,7 +10573,7 @@
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="3"/>
-      <c r="F206" s="4"/>
+      <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="3"/>
       <c r="I206" s="2"/>
@@ -10459,7 +10609,7 @@
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="3"/>
-      <c r="F207" s="4"/>
+      <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="3"/>
       <c r="I207" s="2"/>
@@ -10495,7 +10645,7 @@
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="3"/>
-      <c r="F208" s="4"/>
+      <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="3"/>
       <c r="I208" s="2"/>
@@ -10531,7 +10681,7 @@
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="3"/>
-      <c r="F209" s="4"/>
+      <c r="F209" s="2"/>
       <c r="G209" s="2"/>
       <c r="H209" s="3"/>
       <c r="I209" s="2"/>
@@ -10567,7 +10717,7 @@
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="3"/>
-      <c r="F210" s="4"/>
+      <c r="F210" s="2"/>
       <c r="G210" s="2"/>
       <c r="H210" s="3"/>
       <c r="I210" s="2"/>
@@ -10603,7 +10753,7 @@
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="3"/>
-      <c r="F211" s="4"/>
+      <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="3"/>
       <c r="I211" s="2"/>
@@ -10639,7 +10789,7 @@
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="3"/>
-      <c r="F212" s="4"/>
+      <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="3"/>
       <c r="I212" s="2"/>
@@ -10675,7 +10825,7 @@
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="3"/>
-      <c r="F213" s="4"/>
+      <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="3"/>
       <c r="I213" s="2"/>
@@ -10711,7 +10861,7 @@
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="3"/>
-      <c r="F214" s="4"/>
+      <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="3"/>
       <c r="I214" s="2"/>
@@ -10747,7 +10897,7 @@
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="3"/>
-      <c r="F215" s="4"/>
+      <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="3"/>
       <c r="I215" s="2"/>
@@ -10783,7 +10933,7 @@
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="3"/>
-      <c r="F216" s="4"/>
+      <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="3"/>
       <c r="I216" s="2"/>
@@ -10819,7 +10969,7 @@
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="3"/>
-      <c r="F217" s="4"/>
+      <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="3"/>
       <c r="I217" s="2"/>
@@ -10855,7 +11005,7 @@
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="3"/>
-      <c r="F218" s="4"/>
+      <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="3"/>
       <c r="I218" s="2"/>
@@ -10891,7 +11041,7 @@
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="3"/>
-      <c r="F219" s="4"/>
+      <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="3"/>
       <c r="I219" s="2"/>
@@ -10927,7 +11077,7 @@
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="3"/>
-      <c r="F220" s="4"/>
+      <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="3"/>
       <c r="I220" s="2"/>
@@ -10963,7 +11113,7 @@
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="3"/>
-      <c r="F221" s="4"/>
+      <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="3"/>
       <c r="I221" s="2"/>
@@ -10999,7 +11149,7 @@
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="3"/>
-      <c r="F222" s="4"/>
+      <c r="F222" s="2"/>
       <c r="G222" s="2"/>
       <c r="H222" s="3"/>
       <c r="I222" s="2"/>
@@ -11035,7 +11185,7 @@
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="3"/>
-      <c r="F223" s="4"/>
+      <c r="F223" s="2"/>
       <c r="G223" s="2"/>
       <c r="H223" s="3"/>
       <c r="I223" s="2"/>
@@ -11071,7 +11221,7 @@
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="3"/>
-      <c r="F224" s="4"/>
+      <c r="F224" s="2"/>
       <c r="G224" s="2"/>
       <c r="H224" s="3"/>
       <c r="I224" s="2"/>
@@ -11107,7 +11257,7 @@
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="3"/>
-      <c r="F225" s="4"/>
+      <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="3"/>
       <c r="I225" s="2"/>
@@ -11143,7 +11293,7 @@
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="3"/>
-      <c r="F226" s="4"/>
+      <c r="F226" s="2"/>
       <c r="G226" s="2"/>
       <c r="H226" s="3"/>
       <c r="I226" s="2"/>
@@ -11179,7 +11329,7 @@
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="3"/>
-      <c r="F227" s="4"/>
+      <c r="F227" s="2"/>
       <c r="G227" s="2"/>
       <c r="H227" s="3"/>
       <c r="I227" s="2"/>
@@ -11215,7 +11365,7 @@
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="3"/>
-      <c r="F228" s="4"/>
+      <c r="F228" s="2"/>
       <c r="G228" s="2"/>
       <c r="H228" s="3"/>
       <c r="I228" s="2"/>
@@ -11251,35 +11401,35 @@
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
-      <c r="F229" s="5"/>
+      <c r="F229" s="3"/>
       <c r="G229" s="3"/>
-      <c r="H229" s="5"/>
+      <c r="H229" s="3"/>
       <c r="I229" s="3"/>
-      <c r="J229" s="5"/>
+      <c r="J229" s="3"/>
       <c r="K229" s="3"/>
-      <c r="L229" s="5"/>
+      <c r="L229" s="3"/>
       <c r="M229" s="3"/>
-      <c r="N229" s="5"/>
+      <c r="N229" s="3"/>
       <c r="O229" s="3"/>
-      <c r="P229" s="5"/>
+      <c r="P229" s="3"/>
       <c r="Q229" s="3"/>
-      <c r="R229" s="5"/>
+      <c r="R229" s="3"/>
       <c r="S229" s="3"/>
-      <c r="T229" s="5"/>
+      <c r="T229" s="3"/>
       <c r="U229" s="3"/>
       <c r="V229" s="3"/>
       <c r="W229" s="3"/>
-      <c r="X229" s="5"/>
+      <c r="X229" s="3"/>
       <c r="Y229" s="3"/>
-      <c r="Z229" s="5"/>
+      <c r="Z229" s="3"/>
       <c r="AA229" s="3"/>
-      <c r="AB229" s="5"/>
+      <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
-      <c r="AD229" s="5"/>
+      <c r="AD229" s="3"/>
       <c r="AE229" s="3"/>
-      <c r="AF229" s="5"/>
+      <c r="AF229" s="3"/>
       <c r="AG229" s="3"/>
-      <c r="AH229" s="5"/>
+      <c r="AH229" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A230" s="2"/>
@@ -11287,7 +11437,7 @@
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="3"/>
-      <c r="F230" s="4"/>
+      <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="3"/>
       <c r="I230" s="2"/>
@@ -11323,35 +11473,35 @@
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
-      <c r="F231" s="5"/>
+      <c r="F231" s="3"/>
       <c r="G231" s="3"/>
-      <c r="H231" s="5"/>
+      <c r="H231" s="3"/>
       <c r="I231" s="3"/>
-      <c r="J231" s="5"/>
+      <c r="J231" s="3"/>
       <c r="K231" s="3"/>
-      <c r="L231" s="5"/>
+      <c r="L231" s="3"/>
       <c r="M231" s="3"/>
-      <c r="N231" s="5"/>
+      <c r="N231" s="3"/>
       <c r="O231" s="3"/>
-      <c r="P231" s="5"/>
+      <c r="P231" s="3"/>
       <c r="Q231" s="3"/>
-      <c r="R231" s="5"/>
+      <c r="R231" s="3"/>
       <c r="S231" s="3"/>
-      <c r="T231" s="5"/>
+      <c r="T231" s="3"/>
       <c r="U231" s="3"/>
-      <c r="V231" s="5"/>
+      <c r="V231" s="3"/>
       <c r="W231" s="3"/>
-      <c r="X231" s="5"/>
+      <c r="X231" s="3"/>
       <c r="Y231" s="3"/>
-      <c r="Z231" s="5"/>
+      <c r="Z231" s="3"/>
       <c r="AA231" s="3"/>
-      <c r="AB231" s="5"/>
+      <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
-      <c r="AD231" s="5"/>
+      <c r="AD231" s="3"/>
       <c r="AE231" s="3"/>
-      <c r="AF231" s="5"/>
+      <c r="AF231" s="3"/>
       <c r="AG231" s="3"/>
-      <c r="AH231" s="5"/>
+      <c r="AH231" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A232" s="2"/>
@@ -11359,7 +11509,7 @@
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="3"/>
-      <c r="F232" s="4"/>
+      <c r="F232" s="2"/>
       <c r="G232" s="2"/>
       <c r="H232" s="3"/>
       <c r="I232" s="2"/>
@@ -11395,35 +11545,35 @@
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
-      <c r="F233" s="5"/>
+      <c r="F233" s="3"/>
       <c r="G233" s="3"/>
-      <c r="H233" s="5"/>
+      <c r="H233" s="3"/>
       <c r="I233" s="3"/>
-      <c r="J233" s="5"/>
+      <c r="J233" s="3"/>
       <c r="K233" s="3"/>
-      <c r="L233" s="5"/>
+      <c r="L233" s="3"/>
       <c r="M233" s="3"/>
-      <c r="N233" s="5"/>
+      <c r="N233" s="3"/>
       <c r="O233" s="3"/>
-      <c r="P233" s="5"/>
+      <c r="P233" s="3"/>
       <c r="Q233" s="3"/>
-      <c r="R233" s="5"/>
+      <c r="R233" s="3"/>
       <c r="S233" s="3"/>
-      <c r="T233" s="5"/>
+      <c r="T233" s="3"/>
       <c r="U233" s="3"/>
-      <c r="V233" s="5"/>
+      <c r="V233" s="3"/>
       <c r="W233" s="3"/>
-      <c r="X233" s="5"/>
+      <c r="X233" s="3"/>
       <c r="Y233" s="3"/>
-      <c r="Z233" s="5"/>
+      <c r="Z233" s="3"/>
       <c r="AA233" s="3"/>
-      <c r="AB233" s="5"/>
+      <c r="AB233" s="3"/>
       <c r="AC233" s="3"/>
-      <c r="AD233" s="5"/>
+      <c r="AD233" s="3"/>
       <c r="AE233" s="3"/>
-      <c r="AF233" s="5"/>
+      <c r="AF233" s="3"/>
       <c r="AG233" s="3"/>
-      <c r="AH233" s="5"/>
+      <c r="AH233" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A234" s="2"/>
@@ -11431,7 +11581,7 @@
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="3"/>
-      <c r="F234" s="4"/>
+      <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="3"/>
       <c r="I234" s="2"/>
@@ -11467,17 +11617,17 @@
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
-      <c r="F235" s="5"/>
+      <c r="F235" s="3"/>
       <c r="G235" s="3"/>
-      <c r="H235" s="5"/>
+      <c r="H235" s="3"/>
       <c r="I235" s="3"/>
-      <c r="J235" s="5"/>
+      <c r="J235" s="3"/>
       <c r="K235" s="3"/>
-      <c r="L235" s="5"/>
+      <c r="L235" s="3"/>
       <c r="M235" s="3"/>
-      <c r="N235" s="5"/>
+      <c r="N235" s="3"/>
       <c r="O235" s="3"/>
-      <c r="P235" s="5"/>
+      <c r="P235" s="3"/>
       <c r="Q235" s="3"/>
       <c r="R235" s="3"/>
       <c r="S235" s="3"/>
@@ -11485,15 +11635,15 @@
       <c r="U235" s="3"/>
       <c r="V235" s="3"/>
       <c r="W235" s="3"/>
-      <c r="X235" s="5"/>
+      <c r="X235" s="3"/>
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
       <c r="AA235" s="3"/>
-      <c r="AB235" s="5"/>
+      <c r="AB235" s="3"/>
       <c r="AC235" s="3"/>
-      <c r="AD235" s="5"/>
+      <c r="AD235" s="3"/>
       <c r="AE235" s="3"/>
-      <c r="AF235" s="5"/>
+      <c r="AF235" s="3"/>
       <c r="AG235" s="3"/>
       <c r="AH235" s="3"/>
     </row>
@@ -11503,7 +11653,7 @@
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="3"/>
-      <c r="F236" s="4"/>
+      <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="3"/>
       <c r="I236" s="2"/>
@@ -11539,35 +11689,35 @@
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
-      <c r="F237" s="5"/>
+      <c r="F237" s="3"/>
       <c r="G237" s="3"/>
-      <c r="H237" s="5"/>
+      <c r="H237" s="3"/>
       <c r="I237" s="3"/>
-      <c r="J237" s="5"/>
+      <c r="J237" s="3"/>
       <c r="K237" s="3"/>
-      <c r="L237" s="5"/>
+      <c r="L237" s="3"/>
       <c r="M237" s="3"/>
-      <c r="N237" s="5"/>
+      <c r="N237" s="3"/>
       <c r="O237" s="3"/>
-      <c r="P237" s="5"/>
+      <c r="P237" s="3"/>
       <c r="Q237" s="3"/>
-      <c r="R237" s="5"/>
+      <c r="R237" s="3"/>
       <c r="S237" s="3"/>
-      <c r="T237" s="5"/>
+      <c r="T237" s="3"/>
       <c r="U237" s="3"/>
       <c r="V237" s="3"/>
       <c r="W237" s="3"/>
-      <c r="X237" s="5"/>
+      <c r="X237" s="3"/>
       <c r="Y237" s="3"/>
-      <c r="Z237" s="5"/>
+      <c r="Z237" s="3"/>
       <c r="AA237" s="3"/>
-      <c r="AB237" s="5"/>
+      <c r="AB237" s="3"/>
       <c r="AC237" s="3"/>
-      <c r="AD237" s="5"/>
+      <c r="AD237" s="3"/>
       <c r="AE237" s="3"/>
-      <c r="AF237" s="5"/>
+      <c r="AF237" s="3"/>
       <c r="AG237" s="3"/>
-      <c r="AH237" s="5"/>
+      <c r="AH237" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A238" s="2"/>
@@ -11575,7 +11725,7 @@
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="3"/>
-      <c r="F238" s="4"/>
+      <c r="F238" s="2"/>
       <c r="G238" s="2"/>
       <c r="H238" s="3"/>
       <c r="I238" s="2"/>
@@ -11611,7 +11761,7 @@
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="3"/>
-      <c r="F239" s="4"/>
+      <c r="F239" s="2"/>
       <c r="G239" s="2"/>
       <c r="H239" s="3"/>
       <c r="I239" s="2"/>
@@ -11647,7 +11797,7 @@
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="3"/>
-      <c r="F240" s="4"/>
+      <c r="F240" s="2"/>
       <c r="G240" s="2"/>
       <c r="H240" s="3"/>
       <c r="I240" s="2"/>
@@ -11683,7 +11833,7 @@
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="3"/>
-      <c r="F241" s="4"/>
+      <c r="F241" s="2"/>
       <c r="G241" s="2"/>
       <c r="H241" s="3"/>
       <c r="I241" s="2"/>
@@ -11719,7 +11869,7 @@
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="3"/>
-      <c r="F242" s="4"/>
+      <c r="F242" s="2"/>
       <c r="G242" s="2"/>
       <c r="H242" s="3"/>
       <c r="I242" s="2"/>
@@ -11755,33 +11905,33 @@
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
-      <c r="F243" s="5"/>
+      <c r="F243" s="3"/>
       <c r="G243" s="3"/>
-      <c r="H243" s="5"/>
+      <c r="H243" s="3"/>
       <c r="I243" s="3"/>
-      <c r="J243" s="5"/>
+      <c r="J243" s="3"/>
       <c r="K243" s="3"/>
-      <c r="L243" s="5"/>
+      <c r="L243" s="3"/>
       <c r="M243" s="3"/>
-      <c r="N243" s="5"/>
+      <c r="N243" s="3"/>
       <c r="O243" s="3"/>
-      <c r="P243" s="5"/>
+      <c r="P243" s="3"/>
       <c r="Q243" s="3"/>
       <c r="R243" s="3"/>
       <c r="S243" s="3"/>
       <c r="T243" s="3"/>
       <c r="U243" s="3"/>
-      <c r="V243" s="5"/>
+      <c r="V243" s="3"/>
       <c r="W243" s="3"/>
-      <c r="X243" s="5"/>
+      <c r="X243" s="3"/>
       <c r="Y243" s="3"/>
-      <c r="Z243" s="5"/>
+      <c r="Z243" s="3"/>
       <c r="AA243" s="3"/>
-      <c r="AB243" s="5"/>
+      <c r="AB243" s="3"/>
       <c r="AC243" s="3"/>
-      <c r="AD243" s="5"/>
+      <c r="AD243" s="3"/>
       <c r="AE243" s="3"/>
-      <c r="AF243" s="5"/>
+      <c r="AF243" s="3"/>
       <c r="AG243" s="3"/>
       <c r="AH243" s="3"/>
     </row>
@@ -11791,7 +11941,7 @@
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="3"/>
-      <c r="F244" s="4"/>
+      <c r="F244" s="2"/>
       <c r="G244" s="2"/>
       <c r="H244" s="3"/>
       <c r="I244" s="2"/>
@@ -11827,7 +11977,7 @@
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="3"/>
-      <c r="F245" s="4"/>
+      <c r="F245" s="2"/>
       <c r="G245" s="2"/>
       <c r="H245" s="3"/>
       <c r="I245" s="2"/>
@@ -11863,7 +12013,7 @@
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="3"/>
-      <c r="F246" s="4"/>
+      <c r="F246" s="2"/>
       <c r="G246" s="2"/>
       <c r="H246" s="3"/>
       <c r="I246" s="2"/>
@@ -11899,7 +12049,7 @@
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="3"/>
-      <c r="F247" s="4"/>
+      <c r="F247" s="2"/>
       <c r="G247" s="2"/>
       <c r="H247" s="3"/>
       <c r="I247" s="2"/>
@@ -11935,7 +12085,7 @@
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="3"/>
-      <c r="F248" s="4"/>
+      <c r="F248" s="2"/>
       <c r="G248" s="2"/>
       <c r="H248" s="3"/>
       <c r="I248" s="2"/>
@@ -11971,7 +12121,7 @@
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="3"/>
-      <c r="F249" s="4"/>
+      <c r="F249" s="2"/>
       <c r="G249" s="2"/>
       <c r="H249" s="3"/>
       <c r="I249" s="2"/>
@@ -12007,7 +12157,7 @@
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="3"/>
-      <c r="F250" s="4"/>
+      <c r="F250" s="2"/>
       <c r="G250" s="2"/>
       <c r="H250" s="3"/>
       <c r="I250" s="2"/>
@@ -12043,7 +12193,7 @@
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="3"/>
-      <c r="F251" s="4"/>
+      <c r="F251" s="2"/>
       <c r="G251" s="2"/>
       <c r="H251" s="3"/>
       <c r="I251" s="2"/>
@@ -12079,7 +12229,7 @@
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="3"/>
-      <c r="F252" s="4"/>
+      <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="3"/>
       <c r="I252" s="2"/>
@@ -12115,7 +12265,7 @@
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="3"/>
-      <c r="F253" s="4"/>
+      <c r="F253" s="2"/>
       <c r="G253" s="2"/>
       <c r="H253" s="3"/>
       <c r="I253" s="2"/>
@@ -12151,7 +12301,7 @@
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="3"/>
-      <c r="F254" s="4"/>
+      <c r="F254" s="2"/>
       <c r="G254" s="2"/>
       <c r="H254" s="3"/>
       <c r="I254" s="2"/>
@@ -12187,7 +12337,7 @@
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="3"/>
-      <c r="F255" s="4"/>
+      <c r="F255" s="2"/>
       <c r="G255" s="2"/>
       <c r="H255" s="3"/>
       <c r="I255" s="2"/>
@@ -12223,7 +12373,7 @@
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="3"/>
-      <c r="F256" s="4"/>
+      <c r="F256" s="2"/>
       <c r="G256" s="2"/>
       <c r="H256" s="3"/>
       <c r="I256" s="2"/>
@@ -12259,7 +12409,7 @@
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="3"/>
-      <c r="F257" s="4"/>
+      <c r="F257" s="2"/>
       <c r="G257" s="2"/>
       <c r="H257" s="3"/>
       <c r="I257" s="2"/>
@@ -12295,7 +12445,7 @@
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="3"/>
-      <c r="F258" s="4"/>
+      <c r="F258" s="2"/>
       <c r="G258" s="2"/>
       <c r="H258" s="3"/>
       <c r="I258" s="2"/>
@@ -12331,7 +12481,7 @@
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="3"/>
-      <c r="F259" s="4"/>
+      <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="3"/>
       <c r="I259" s="2"/>
@@ -12367,7 +12517,7 @@
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="3"/>
-      <c r="F260" s="4"/>
+      <c r="F260" s="2"/>
       <c r="G260" s="2"/>
       <c r="H260" s="3"/>
       <c r="I260" s="2"/>
@@ -12403,7 +12553,7 @@
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="3"/>
-      <c r="F261" s="4"/>
+      <c r="F261" s="2"/>
       <c r="G261" s="2"/>
       <c r="H261" s="3"/>
       <c r="I261" s="2"/>
@@ -12439,7 +12589,7 @@
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="3"/>
-      <c r="F262" s="4"/>
+      <c r="F262" s="2"/>
       <c r="G262" s="2"/>
       <c r="H262" s="3"/>
       <c r="I262" s="2"/>
@@ -12475,7 +12625,7 @@
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="3"/>
-      <c r="F263" s="4"/>
+      <c r="F263" s="2"/>
       <c r="G263" s="2"/>
       <c r="H263" s="3"/>
       <c r="I263" s="2"/>
@@ -12511,7 +12661,7 @@
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="3"/>
-      <c r="F264" s="4"/>
+      <c r="F264" s="2"/>
       <c r="G264" s="2"/>
       <c r="H264" s="3"/>
       <c r="I264" s="2"/>
@@ -12547,7 +12697,7 @@
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="3"/>
-      <c r="F265" s="4"/>
+      <c r="F265" s="2"/>
       <c r="G265" s="2"/>
       <c r="H265" s="3"/>
       <c r="I265" s="2"/>
@@ -12583,7 +12733,7 @@
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="3"/>
-      <c r="F266" s="4"/>
+      <c r="F266" s="2"/>
       <c r="G266" s="2"/>
       <c r="H266" s="3"/>
       <c r="I266" s="2"/>
@@ -12619,7 +12769,7 @@
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="3"/>
-      <c r="F267" s="4"/>
+      <c r="F267" s="2"/>
       <c r="G267" s="2"/>
       <c r="H267" s="3"/>
       <c r="I267" s="2"/>
@@ -12655,7 +12805,7 @@
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="3"/>
-      <c r="F268" s="4"/>
+      <c r="F268" s="2"/>
       <c r="G268" s="2"/>
       <c r="H268" s="3"/>
       <c r="I268" s="2"/>
@@ -12691,7 +12841,7 @@
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="3"/>
-      <c r="F269" s="4"/>
+      <c r="F269" s="2"/>
       <c r="G269" s="2"/>
       <c r="H269" s="3"/>
       <c r="I269" s="2"/>
@@ -12727,7 +12877,7 @@
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="3"/>
-      <c r="F270" s="4"/>
+      <c r="F270" s="2"/>
       <c r="G270" s="2"/>
       <c r="H270" s="3"/>
       <c r="I270" s="2"/>
@@ -12763,7 +12913,7 @@
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="3"/>
-      <c r="F271" s="4"/>
+      <c r="F271" s="2"/>
       <c r="G271" s="2"/>
       <c r="H271" s="3"/>
       <c r="I271" s="2"/>
@@ -12799,7 +12949,7 @@
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="3"/>
-      <c r="F272" s="4"/>
+      <c r="F272" s="2"/>
       <c r="G272" s="2"/>
       <c r="H272" s="3"/>
       <c r="I272" s="2"/>
@@ -12835,35 +12985,35 @@
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
-      <c r="F273" s="5"/>
+      <c r="F273" s="3"/>
       <c r="G273" s="3"/>
-      <c r="H273" s="5"/>
+      <c r="H273" s="3"/>
       <c r="I273" s="3"/>
-      <c r="J273" s="5"/>
+      <c r="J273" s="3"/>
       <c r="K273" s="3"/>
-      <c r="L273" s="5"/>
+      <c r="L273" s="3"/>
       <c r="M273" s="3"/>
-      <c r="N273" s="5"/>
+      <c r="N273" s="3"/>
       <c r="O273" s="3"/>
-      <c r="P273" s="5"/>
+      <c r="P273" s="3"/>
       <c r="Q273" s="3"/>
-      <c r="R273" s="5"/>
+      <c r="R273" s="3"/>
       <c r="S273" s="3"/>
-      <c r="T273" s="5"/>
+      <c r="T273" s="3"/>
       <c r="U273" s="3"/>
-      <c r="V273" s="5"/>
+      <c r="V273" s="3"/>
       <c r="W273" s="3"/>
-      <c r="X273" s="5"/>
+      <c r="X273" s="3"/>
       <c r="Y273" s="3"/>
-      <c r="Z273" s="5"/>
+      <c r="Z273" s="3"/>
       <c r="AA273" s="3"/>
-      <c r="AB273" s="5"/>
+      <c r="AB273" s="3"/>
       <c r="AC273" s="3"/>
-      <c r="AD273" s="5"/>
+      <c r="AD273" s="3"/>
       <c r="AE273" s="3"/>
-      <c r="AF273" s="5"/>
+      <c r="AF273" s="3"/>
       <c r="AG273" s="3"/>
-      <c r="AH273" s="5"/>
+      <c r="AH273" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A274" s="3"/>
@@ -12871,35 +13021,35 @@
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
-      <c r="F274" s="5"/>
+      <c r="F274" s="3"/>
       <c r="G274" s="3"/>
-      <c r="H274" s="5"/>
+      <c r="H274" s="3"/>
       <c r="I274" s="3"/>
-      <c r="J274" s="5"/>
+      <c r="J274" s="3"/>
       <c r="K274" s="3"/>
-      <c r="L274" s="5"/>
+      <c r="L274" s="3"/>
       <c r="M274" s="3"/>
-      <c r="N274" s="5"/>
+      <c r="N274" s="3"/>
       <c r="O274" s="3"/>
-      <c r="P274" s="5"/>
+      <c r="P274" s="3"/>
       <c r="Q274" s="3"/>
-      <c r="R274" s="5"/>
+      <c r="R274" s="3"/>
       <c r="S274" s="3"/>
-      <c r="T274" s="5"/>
+      <c r="T274" s="3"/>
       <c r="U274" s="3"/>
-      <c r="V274" s="5"/>
+      <c r="V274" s="3"/>
       <c r="W274" s="3"/>
-      <c r="X274" s="5"/>
+      <c r="X274" s="3"/>
       <c r="Y274" s="3"/>
-      <c r="Z274" s="5"/>
+      <c r="Z274" s="3"/>
       <c r="AA274" s="3"/>
-      <c r="AB274" s="5"/>
+      <c r="AB274" s="3"/>
       <c r="AC274" s="3"/>
-      <c r="AD274" s="5"/>
+      <c r="AD274" s="3"/>
       <c r="AE274" s="3"/>
-      <c r="AF274" s="5"/>
+      <c r="AF274" s="3"/>
       <c r="AG274" s="3"/>
-      <c r="AH274" s="5"/>
+      <c r="AH274" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A275" s="2"/>
@@ -12907,7 +13057,7 @@
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="3"/>
-      <c r="F275" s="4"/>
+      <c r="F275" s="2"/>
       <c r="G275" s="2"/>
       <c r="H275" s="3"/>
       <c r="I275" s="2"/>
@@ -12943,7 +13093,7 @@
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="3"/>
-      <c r="F276" s="4"/>
+      <c r="F276" s="2"/>
       <c r="G276" s="2"/>
       <c r="H276" s="3"/>
       <c r="I276" s="2"/>
@@ -12979,7 +13129,7 @@
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="3"/>
-      <c r="F277" s="4"/>
+      <c r="F277" s="2"/>
       <c r="G277" s="2"/>
       <c r="H277" s="3"/>
       <c r="I277" s="2"/>
@@ -13015,7 +13165,7 @@
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="3"/>
-      <c r="F278" s="4"/>
+      <c r="F278" s="2"/>
       <c r="G278" s="2"/>
       <c r="H278" s="3"/>
       <c r="I278" s="2"/>
@@ -13051,7 +13201,7 @@
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="3"/>
-      <c r="F279" s="4"/>
+      <c r="F279" s="2"/>
       <c r="G279" s="2"/>
       <c r="H279" s="3"/>
       <c r="I279" s="2"/>
@@ -13095,19 +13245,19 @@
       <c r="K280" s="3"/>
       <c r="L280" s="3"/>
       <c r="M280" s="3"/>
-      <c r="N280" s="5"/>
+      <c r="N280" s="3"/>
       <c r="O280" s="3"/>
-      <c r="P280" s="5"/>
+      <c r="P280" s="3"/>
       <c r="Q280" s="3"/>
       <c r="R280" s="3"/>
       <c r="S280" s="3"/>
       <c r="T280" s="3"/>
       <c r="U280" s="3"/>
-      <c r="V280" s="5"/>
+      <c r="V280" s="3"/>
       <c r="W280" s="3"/>
-      <c r="X280" s="5"/>
+      <c r="X280" s="3"/>
       <c r="Y280" s="3"/>
-      <c r="Z280" s="5"/>
+      <c r="Z280" s="3"/>
       <c r="AA280" s="3"/>
       <c r="AB280" s="3"/>
       <c r="AC280" s="3"/>
@@ -13131,19 +13281,19 @@
       <c r="K281" s="3"/>
       <c r="L281" s="3"/>
       <c r="M281" s="3"/>
-      <c r="N281" s="5"/>
+      <c r="N281" s="3"/>
       <c r="O281" s="3"/>
-      <c r="P281" s="5"/>
+      <c r="P281" s="3"/>
       <c r="Q281" s="3"/>
       <c r="R281" s="3"/>
       <c r="S281" s="3"/>
       <c r="T281" s="3"/>
       <c r="U281" s="3"/>
-      <c r="V281" s="5"/>
+      <c r="V281" s="3"/>
       <c r="W281" s="3"/>
-      <c r="X281" s="5"/>
+      <c r="X281" s="3"/>
       <c r="Y281" s="3"/>
-      <c r="Z281" s="5"/>
+      <c r="Z281" s="3"/>
       <c r="AA281" s="3"/>
       <c r="AB281" s="3"/>
       <c r="AC281" s="3"/>
@@ -13159,7 +13309,7 @@
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="3"/>
-      <c r="F282" s="4"/>
+      <c r="F282" s="2"/>
       <c r="G282" s="2"/>
       <c r="H282" s="3"/>
       <c r="I282" s="2"/>
@@ -13195,7 +13345,7 @@
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="3"/>
-      <c r="F283" s="4"/>
+      <c r="F283" s="2"/>
       <c r="G283" s="2"/>
       <c r="H283" s="3"/>
       <c r="I283" s="2"/>
@@ -13239,19 +13389,19 @@
       <c r="K284" s="3"/>
       <c r="L284" s="3"/>
       <c r="M284" s="3"/>
-      <c r="N284" s="5"/>
+      <c r="N284" s="3"/>
       <c r="O284" s="3"/>
-      <c r="P284" s="5"/>
+      <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
       <c r="R284" s="3"/>
       <c r="S284" s="3"/>
       <c r="T284" s="3"/>
       <c r="U284" s="3"/>
-      <c r="V284" s="5"/>
+      <c r="V284" s="3"/>
       <c r="W284" s="3"/>
-      <c r="X284" s="5"/>
+      <c r="X284" s="3"/>
       <c r="Y284" s="3"/>
-      <c r="Z284" s="5"/>
+      <c r="Z284" s="3"/>
       <c r="AA284" s="3"/>
       <c r="AB284" s="3"/>
       <c r="AC284" s="3"/>
@@ -13267,7 +13417,7 @@
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="3"/>
-      <c r="F285" s="4"/>
+      <c r="F285" s="2"/>
       <c r="G285" s="2"/>
       <c r="H285" s="3"/>
       <c r="I285" s="2"/>
@@ -13303,7 +13453,7 @@
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="3"/>
-      <c r="F286" s="4"/>
+      <c r="F286" s="2"/>
       <c r="G286" s="2"/>
       <c r="H286" s="3"/>
       <c r="I286" s="2"/>
@@ -13339,7 +13489,7 @@
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="3"/>
-      <c r="F287" s="4"/>
+      <c r="F287" s="2"/>
       <c r="G287" s="2"/>
       <c r="H287" s="3"/>
       <c r="I287" s="2"/>
@@ -13383,19 +13533,19 @@
       <c r="K288" s="3"/>
       <c r="L288" s="3"/>
       <c r="M288" s="3"/>
-      <c r="N288" s="5"/>
+      <c r="N288" s="3"/>
       <c r="O288" s="3"/>
-      <c r="P288" s="5"/>
+      <c r="P288" s="3"/>
       <c r="Q288" s="3"/>
       <c r="R288" s="3"/>
       <c r="S288" s="3"/>
       <c r="T288" s="3"/>
       <c r="U288" s="3"/>
-      <c r="V288" s="5"/>
+      <c r="V288" s="3"/>
       <c r="W288" s="3"/>
-      <c r="X288" s="5"/>
+      <c r="X288" s="3"/>
       <c r="Y288" s="3"/>
-      <c r="Z288" s="5"/>
+      <c r="Z288" s="3"/>
       <c r="AA288" s="3"/>
       <c r="AB288" s="3"/>
       <c r="AC288" s="3"/>
@@ -13411,7 +13561,7 @@
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="3"/>
-      <c r="F289" s="4"/>
+      <c r="F289" s="2"/>
       <c r="G289" s="2"/>
       <c r="H289" s="3"/>
       <c r="I289" s="2"/>
@@ -13447,7 +13597,7 @@
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="3"/>
-      <c r="F290" s="4"/>
+      <c r="F290" s="2"/>
       <c r="G290" s="2"/>
       <c r="H290" s="3"/>
       <c r="I290" s="2"/>
@@ -13483,7 +13633,7 @@
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="3"/>
-      <c r="F291" s="4"/>
+      <c r="F291" s="2"/>
       <c r="G291" s="2"/>
       <c r="H291" s="3"/>
       <c r="I291" s="2"/>
@@ -13519,29 +13669,29 @@
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
-      <c r="F292" s="5"/>
+      <c r="F292" s="3"/>
       <c r="G292" s="3"/>
-      <c r="H292" s="5"/>
+      <c r="H292" s="3"/>
       <c r="I292" s="3"/>
-      <c r="J292" s="5"/>
+      <c r="J292" s="3"/>
       <c r="K292" s="3"/>
-      <c r="L292" s="5"/>
+      <c r="L292" s="3"/>
       <c r="M292" s="3"/>
-      <c r="N292" s="5"/>
+      <c r="N292" s="3"/>
       <c r="O292" s="3"/>
-      <c r="P292" s="5"/>
+      <c r="P292" s="3"/>
       <c r="Q292" s="3"/>
-      <c r="R292" s="5"/>
+      <c r="R292" s="3"/>
       <c r="S292" s="3"/>
-      <c r="T292" s="5"/>
+      <c r="T292" s="3"/>
       <c r="U292" s="3"/>
-      <c r="V292" s="5"/>
+      <c r="V292" s="3"/>
       <c r="W292" s="3"/>
-      <c r="X292" s="5"/>
+      <c r="X292" s="3"/>
       <c r="Y292" s="3"/>
-      <c r="Z292" s="5"/>
+      <c r="Z292" s="3"/>
       <c r="AA292" s="3"/>
-      <c r="AB292" s="5"/>
+      <c r="AB292" s="3"/>
       <c r="AC292" s="3"/>
       <c r="AD292" s="3"/>
       <c r="AE292" s="3"/>
@@ -13555,7 +13705,7 @@
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="3"/>
-      <c r="F293" s="4"/>
+      <c r="F293" s="2"/>
       <c r="G293" s="2"/>
       <c r="H293" s="3"/>
       <c r="I293" s="2"/>
@@ -13591,7 +13741,7 @@
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="3"/>
-      <c r="F294" s="4"/>
+      <c r="F294" s="2"/>
       <c r="G294" s="2"/>
       <c r="H294" s="3"/>
       <c r="I294" s="2"/>
@@ -13627,7 +13777,7 @@
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="3"/>
-      <c r="F295" s="4"/>
+      <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="3"/>
       <c r="I295" s="2"/>
@@ -13669,21 +13819,21 @@
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
-      <c r="L296" s="5"/>
+      <c r="L296" s="3"/>
       <c r="M296" s="3"/>
-      <c r="N296" s="5"/>
+      <c r="N296" s="3"/>
       <c r="O296" s="3"/>
-      <c r="P296" s="5"/>
+      <c r="P296" s="3"/>
       <c r="Q296" s="3"/>
       <c r="R296" s="3"/>
       <c r="S296" s="3"/>
       <c r="T296" s="3"/>
       <c r="U296" s="3"/>
-      <c r="V296" s="5"/>
+      <c r="V296" s="3"/>
       <c r="W296" s="3"/>
-      <c r="X296" s="5"/>
+      <c r="X296" s="3"/>
       <c r="Y296" s="3"/>
-      <c r="Z296" s="5"/>
+      <c r="Z296" s="3"/>
       <c r="AA296" s="3"/>
       <c r="AB296" s="3"/>
       <c r="AC296" s="3"/>
@@ -13699,7 +13849,7 @@
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="3"/>
-      <c r="F297" s="4"/>
+      <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="3"/>
       <c r="I297" s="2"/>
@@ -13735,29 +13885,29 @@
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
-      <c r="F298" s="5"/>
+      <c r="F298" s="3"/>
       <c r="G298" s="3"/>
-      <c r="H298" s="5"/>
+      <c r="H298" s="3"/>
       <c r="I298" s="3"/>
-      <c r="J298" s="5"/>
+      <c r="J298" s="3"/>
       <c r="K298" s="3"/>
-      <c r="L298" s="5"/>
+      <c r="L298" s="3"/>
       <c r="M298" s="3"/>
-      <c r="N298" s="5"/>
+      <c r="N298" s="3"/>
       <c r="O298" s="3"/>
-      <c r="P298" s="5"/>
+      <c r="P298" s="3"/>
       <c r="Q298" s="3"/>
-      <c r="R298" s="5"/>
+      <c r="R298" s="3"/>
       <c r="S298" s="3"/>
-      <c r="T298" s="5"/>
+      <c r="T298" s="3"/>
       <c r="U298" s="3"/>
-      <c r="V298" s="5"/>
+      <c r="V298" s="3"/>
       <c r="W298" s="3"/>
-      <c r="X298" s="5"/>
+      <c r="X298" s="3"/>
       <c r="Y298" s="3"/>
-      <c r="Z298" s="5"/>
+      <c r="Z298" s="3"/>
       <c r="AA298" s="3"/>
-      <c r="AB298" s="5"/>
+      <c r="AB298" s="3"/>
       <c r="AC298" s="3"/>
       <c r="AD298" s="3"/>
       <c r="AE298" s="3"/>
@@ -13771,7 +13921,7 @@
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="3"/>
-      <c r="F299" s="4"/>
+      <c r="F299" s="2"/>
       <c r="G299" s="2"/>
       <c r="H299" s="3"/>
       <c r="I299" s="2"/>
@@ -13807,29 +13957,29 @@
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
-      <c r="F300" s="5"/>
+      <c r="F300" s="3"/>
       <c r="G300" s="3"/>
-      <c r="H300" s="5"/>
+      <c r="H300" s="3"/>
       <c r="I300" s="3"/>
-      <c r="J300" s="5"/>
+      <c r="J300" s="3"/>
       <c r="K300" s="3"/>
-      <c r="L300" s="5"/>
+      <c r="L300" s="3"/>
       <c r="M300" s="3"/>
-      <c r="N300" s="5"/>
+      <c r="N300" s="3"/>
       <c r="O300" s="3"/>
-      <c r="P300" s="5"/>
+      <c r="P300" s="3"/>
       <c r="Q300" s="3"/>
-      <c r="R300" s="5"/>
+      <c r="R300" s="3"/>
       <c r="S300" s="3"/>
-      <c r="T300" s="5"/>
+      <c r="T300" s="3"/>
       <c r="U300" s="3"/>
-      <c r="V300" s="5"/>
+      <c r="V300" s="3"/>
       <c r="W300" s="3"/>
-      <c r="X300" s="5"/>
+      <c r="X300" s="3"/>
       <c r="Y300" s="3"/>
-      <c r="Z300" s="5"/>
+      <c r="Z300" s="3"/>
       <c r="AA300" s="3"/>
-      <c r="AB300" s="5"/>
+      <c r="AB300" s="3"/>
       <c r="AC300" s="3"/>
       <c r="AD300" s="3"/>
       <c r="AE300" s="3"/>
@@ -13843,7 +13993,7 @@
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="3"/>
-      <c r="F301" s="4"/>
+      <c r="F301" s="2"/>
       <c r="G301" s="2"/>
       <c r="H301" s="3"/>
       <c r="I301" s="2"/>
@@ -13885,21 +14035,21 @@
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
       <c r="K302" s="3"/>
-      <c r="L302" s="5"/>
+      <c r="L302" s="3"/>
       <c r="M302" s="3"/>
-      <c r="N302" s="5"/>
+      <c r="N302" s="3"/>
       <c r="O302" s="3"/>
-      <c r="P302" s="5"/>
+      <c r="P302" s="3"/>
       <c r="Q302" s="3"/>
       <c r="R302" s="3"/>
       <c r="S302" s="3"/>
       <c r="T302" s="3"/>
       <c r="U302" s="3"/>
-      <c r="V302" s="5"/>
+      <c r="V302" s="3"/>
       <c r="W302" s="3"/>
-      <c r="X302" s="5"/>
+      <c r="X302" s="3"/>
       <c r="Y302" s="3"/>
-      <c r="Z302" s="5"/>
+      <c r="Z302" s="3"/>
       <c r="AA302" s="3"/>
       <c r="AB302" s="3"/>
       <c r="AC302" s="3"/>
@@ -13915,7 +14065,7 @@
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="3"/>
-      <c r="F303" s="4"/>
+      <c r="F303" s="2"/>
       <c r="G303" s="2"/>
       <c r="H303" s="3"/>
       <c r="I303" s="2"/>
@@ -13951,29 +14101,29 @@
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
-      <c r="F304" s="5"/>
+      <c r="F304" s="3"/>
       <c r="G304" s="3"/>
-      <c r="H304" s="5"/>
+      <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
-      <c r="L304" s="5"/>
+      <c r="L304" s="3"/>
       <c r="M304" s="3"/>
-      <c r="N304" s="5"/>
+      <c r="N304" s="3"/>
       <c r="O304" s="3"/>
-      <c r="P304" s="5"/>
+      <c r="P304" s="3"/>
       <c r="Q304" s="3"/>
       <c r="R304" s="3"/>
       <c r="S304" s="3"/>
       <c r="T304" s="3"/>
       <c r="U304" s="3"/>
-      <c r="V304" s="5"/>
+      <c r="V304" s="3"/>
       <c r="W304" s="3"/>
       <c r="X304" s="3"/>
       <c r="Y304" s="3"/>
-      <c r="Z304" s="5"/>
+      <c r="Z304" s="3"/>
       <c r="AA304" s="3"/>
-      <c r="AB304" s="5"/>
+      <c r="AB304" s="3"/>
       <c r="AC304" s="3"/>
       <c r="AD304" s="3"/>
       <c r="AE304" s="3"/>
@@ -13987,7 +14137,7 @@
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="3"/>
-      <c r="F305" s="4"/>
+      <c r="F305" s="2"/>
       <c r="G305" s="2"/>
       <c r="H305" s="3"/>
       <c r="I305" s="2"/>
@@ -14023,7 +14173,7 @@
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="3"/>
-      <c r="F306" s="4"/>
+      <c r="F306" s="2"/>
       <c r="G306" s="2"/>
       <c r="H306" s="3"/>
       <c r="I306" s="2"/>
@@ -14059,7 +14209,7 @@
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="3"/>
-      <c r="F307" s="4"/>
+      <c r="F307" s="2"/>
       <c r="G307" s="2"/>
       <c r="H307" s="3"/>
       <c r="I307" s="2"/>
@@ -14095,29 +14245,29 @@
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
-      <c r="F308" s="5"/>
+      <c r="F308" s="3"/>
       <c r="G308" s="3"/>
-      <c r="H308" s="5"/>
+      <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
-      <c r="L308" s="5"/>
+      <c r="L308" s="3"/>
       <c r="M308" s="3"/>
-      <c r="N308" s="5"/>
+      <c r="N308" s="3"/>
       <c r="O308" s="3"/>
-      <c r="P308" s="5"/>
+      <c r="P308" s="3"/>
       <c r="Q308" s="3"/>
       <c r="R308" s="3"/>
       <c r="S308" s="3"/>
       <c r="T308" s="3"/>
       <c r="U308" s="3"/>
-      <c r="V308" s="5"/>
+      <c r="V308" s="3"/>
       <c r="W308" s="3"/>
-      <c r="X308" s="5"/>
+      <c r="X308" s="3"/>
       <c r="Y308" s="3"/>
-      <c r="Z308" s="5"/>
+      <c r="Z308" s="3"/>
       <c r="AA308" s="3"/>
-      <c r="AB308" s="5"/>
+      <c r="AB308" s="3"/>
       <c r="AC308" s="3"/>
       <c r="AD308" s="3"/>
       <c r="AE308" s="3"/>
@@ -14131,7 +14281,7 @@
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="3"/>
-      <c r="F309" s="4"/>
+      <c r="F309" s="2"/>
       <c r="G309" s="2"/>
       <c r="H309" s="3"/>
       <c r="I309" s="2"/>
@@ -14177,7 +14327,7 @@
       <c r="M310" s="3"/>
       <c r="N310" s="3"/>
       <c r="O310" s="3"/>
-      <c r="P310" s="5"/>
+      <c r="P310" s="3"/>
       <c r="Q310" s="3"/>
       <c r="R310" s="3"/>
       <c r="S310" s="3"/>
@@ -14203,7 +14353,7 @@
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="3"/>
-      <c r="F311" s="4"/>
+      <c r="F311" s="2"/>
       <c r="G311" s="2"/>
       <c r="H311" s="3"/>
       <c r="I311" s="2"/>
@@ -14239,29 +14389,29 @@
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
-      <c r="F312" s="5"/>
+      <c r="F312" s="3"/>
       <c r="G312" s="3"/>
-      <c r="H312" s="5"/>
+      <c r="H312" s="3"/>
       <c r="I312" s="3"/>
-      <c r="J312" s="5"/>
+      <c r="J312" s="3"/>
       <c r="K312" s="3"/>
-      <c r="L312" s="5"/>
+      <c r="L312" s="3"/>
       <c r="M312" s="3"/>
-      <c r="N312" s="5"/>
+      <c r="N312" s="3"/>
       <c r="O312" s="3"/>
-      <c r="P312" s="5"/>
+      <c r="P312" s="3"/>
       <c r="Q312" s="3"/>
-      <c r="R312" s="5"/>
+      <c r="R312" s="3"/>
       <c r="S312" s="3"/>
       <c r="T312" s="3"/>
       <c r="U312" s="3"/>
-      <c r="V312" s="5"/>
+      <c r="V312" s="3"/>
       <c r="W312" s="3"/>
-      <c r="X312" s="5"/>
+      <c r="X312" s="3"/>
       <c r="Y312" s="3"/>
-      <c r="Z312" s="5"/>
+      <c r="Z312" s="3"/>
       <c r="AA312" s="3"/>
-      <c r="AB312" s="5"/>
+      <c r="AB312" s="3"/>
       <c r="AC312" s="3"/>
       <c r="AD312" s="3"/>
       <c r="AE312" s="3"/>
@@ -14275,7 +14425,7 @@
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="3"/>
-      <c r="F313" s="4"/>
+      <c r="F313" s="2"/>
       <c r="G313" s="2"/>
       <c r="H313" s="3"/>
       <c r="I313" s="2"/>
@@ -14311,7 +14461,7 @@
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="3"/>
-      <c r="F314" s="4"/>
+      <c r="F314" s="2"/>
       <c r="G314" s="2"/>
       <c r="H314" s="3"/>
       <c r="I314" s="2"/>
@@ -14347,7 +14497,7 @@
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="3"/>
-      <c r="F315" s="4"/>
+      <c r="F315" s="2"/>
       <c r="G315" s="2"/>
       <c r="H315" s="3"/>
       <c r="I315" s="2"/>
@@ -14383,7 +14533,7 @@
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="3"/>
-      <c r="F316" s="4"/>
+      <c r="F316" s="2"/>
       <c r="G316" s="2"/>
       <c r="H316" s="3"/>
       <c r="I316" s="2"/>
@@ -14419,7 +14569,7 @@
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="3"/>
-      <c r="F317" s="4"/>
+      <c r="F317" s="2"/>
       <c r="G317" s="2"/>
       <c r="H317" s="3"/>
       <c r="I317" s="2"/>
@@ -14455,7 +14605,7 @@
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="3"/>
-      <c r="F318" s="4"/>
+      <c r="F318" s="2"/>
       <c r="G318" s="2"/>
       <c r="H318" s="3"/>
       <c r="I318" s="2"/>
@@ -14491,7 +14641,7 @@
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="3"/>
-      <c r="F319" s="4"/>
+      <c r="F319" s="2"/>
       <c r="G319" s="2"/>
       <c r="H319" s="3"/>
       <c r="I319" s="2"/>
@@ -14533,11 +14683,11 @@
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
-      <c r="L320" s="5"/>
+      <c r="L320" s="3"/>
       <c r="M320" s="3"/>
-      <c r="N320" s="5"/>
+      <c r="N320" s="3"/>
       <c r="O320" s="3"/>
-      <c r="P320" s="5"/>
+      <c r="P320" s="3"/>
       <c r="Q320" s="3"/>
       <c r="R320" s="3"/>
       <c r="S320" s="3"/>
@@ -14555,7 +14705,7 @@
       <c r="AE320" s="3"/>
       <c r="AF320" s="3"/>
       <c r="AG320" s="3"/>
-      <c r="AH320" s="5"/>
+      <c r="AH320" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A321" s="2"/>
@@ -14563,7 +14713,7 @@
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="3"/>
-      <c r="F321" s="4"/>
+      <c r="F321" s="2"/>
       <c r="G321" s="2"/>
       <c r="H321" s="3"/>
       <c r="I321" s="2"/>
@@ -14599,7 +14749,7 @@
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="3"/>
-      <c r="F322" s="4"/>
+      <c r="F322" s="2"/>
       <c r="G322" s="2"/>
       <c r="H322" s="3"/>
       <c r="I322" s="2"/>
@@ -14641,11 +14791,11 @@
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
-      <c r="L323" s="5"/>
+      <c r="L323" s="3"/>
       <c r="M323" s="3"/>
-      <c r="N323" s="5"/>
+      <c r="N323" s="3"/>
       <c r="O323" s="3"/>
-      <c r="P323" s="5"/>
+      <c r="P323" s="3"/>
       <c r="Q323" s="3"/>
       <c r="R323" s="3"/>
       <c r="S323" s="3"/>
@@ -14663,7 +14813,7 @@
       <c r="AE323" s="3"/>
       <c r="AF323" s="3"/>
       <c r="AG323" s="3"/>
-      <c r="AH323" s="5"/>
+      <c r="AH323" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A324" s="3"/>
@@ -14677,11 +14827,11 @@
       <c r="I324" s="3"/>
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
-      <c r="L324" s="5"/>
+      <c r="L324" s="3"/>
       <c r="M324" s="3"/>
-      <c r="N324" s="5"/>
+      <c r="N324" s="3"/>
       <c r="O324" s="3"/>
-      <c r="P324" s="5"/>
+      <c r="P324" s="3"/>
       <c r="Q324" s="3"/>
       <c r="R324" s="3"/>
       <c r="S324" s="3"/>
@@ -14699,7 +14849,7 @@
       <c r="AE324" s="3"/>
       <c r="AF324" s="3"/>
       <c r="AG324" s="3"/>
-      <c r="AH324" s="5"/>
+      <c r="AH324" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A325" s="2"/>
@@ -14707,7 +14857,7 @@
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="3"/>
-      <c r="F325" s="4"/>
+      <c r="F325" s="2"/>
       <c r="G325" s="2"/>
       <c r="H325" s="3"/>
       <c r="I325" s="2"/>
@@ -14749,11 +14899,11 @@
       <c r="I326" s="3"/>
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
-      <c r="L326" s="5"/>
+      <c r="L326" s="3"/>
       <c r="M326" s="3"/>
-      <c r="N326" s="5"/>
+      <c r="N326" s="3"/>
       <c r="O326" s="3"/>
-      <c r="P326" s="5"/>
+      <c r="P326" s="3"/>
       <c r="Q326" s="3"/>
       <c r="R326" s="3"/>
       <c r="S326" s="3"/>
@@ -14771,7 +14921,7 @@
       <c r="AE326" s="3"/>
       <c r="AF326" s="3"/>
       <c r="AG326" s="3"/>
-      <c r="AH326" s="5"/>
+      <c r="AH326" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A327" s="2"/>
@@ -14779,7 +14929,7 @@
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="3"/>
-      <c r="F327" s="4"/>
+      <c r="F327" s="2"/>
       <c r="G327" s="2"/>
       <c r="H327" s="3"/>
       <c r="I327" s="2"/>
@@ -14815,7 +14965,7 @@
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="3"/>
-      <c r="F328" s="4"/>
+      <c r="F328" s="2"/>
       <c r="G328" s="2"/>
       <c r="H328" s="3"/>
       <c r="I328" s="2"/>
@@ -14851,7 +15001,7 @@
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="3"/>
-      <c r="F329" s="4"/>
+      <c r="F329" s="2"/>
       <c r="G329" s="2"/>
       <c r="H329" s="3"/>
       <c r="I329" s="2"/>
@@ -14887,7 +15037,7 @@
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="3"/>
-      <c r="F330" s="4"/>
+      <c r="F330" s="2"/>
       <c r="G330" s="2"/>
       <c r="H330" s="3"/>
       <c r="I330" s="2"/>
@@ -14923,29 +15073,29 @@
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
-      <c r="F331" s="5"/>
+      <c r="F331" s="3"/>
       <c r="G331" s="3"/>
-      <c r="H331" s="5"/>
+      <c r="H331" s="3"/>
       <c r="I331" s="3"/>
-      <c r="J331" s="5"/>
+      <c r="J331" s="3"/>
       <c r="K331" s="3"/>
-      <c r="L331" s="5"/>
+      <c r="L331" s="3"/>
       <c r="M331" s="3"/>
-      <c r="N331" s="5"/>
+      <c r="N331" s="3"/>
       <c r="O331" s="3"/>
-      <c r="P331" s="5"/>
+      <c r="P331" s="3"/>
       <c r="Q331" s="3"/>
-      <c r="R331" s="5"/>
+      <c r="R331" s="3"/>
       <c r="S331" s="3"/>
-      <c r="T331" s="5"/>
+      <c r="T331" s="3"/>
       <c r="U331" s="3"/>
-      <c r="V331" s="5"/>
+      <c r="V331" s="3"/>
       <c r="W331" s="3"/>
-      <c r="X331" s="5"/>
+      <c r="X331" s="3"/>
       <c r="Y331" s="3"/>
-      <c r="Z331" s="5"/>
+      <c r="Z331" s="3"/>
       <c r="AA331" s="3"/>
-      <c r="AB331" s="5"/>
+      <c r="AB331" s="3"/>
       <c r="AC331" s="3"/>
       <c r="AD331" s="3"/>
       <c r="AE331" s="3"/>
@@ -14959,29 +15109,29 @@
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
-      <c r="F332" s="5"/>
+      <c r="F332" s="3"/>
       <c r="G332" s="3"/>
-      <c r="H332" s="5"/>
+      <c r="H332" s="3"/>
       <c r="I332" s="3"/>
-      <c r="J332" s="5"/>
+      <c r="J332" s="3"/>
       <c r="K332" s="3"/>
-      <c r="L332" s="5"/>
+      <c r="L332" s="3"/>
       <c r="M332" s="3"/>
-      <c r="N332" s="5"/>
+      <c r="N332" s="3"/>
       <c r="O332" s="3"/>
-      <c r="P332" s="5"/>
+      <c r="P332" s="3"/>
       <c r="Q332" s="3"/>
-      <c r="R332" s="5"/>
+      <c r="R332" s="3"/>
       <c r="S332" s="3"/>
-      <c r="T332" s="5"/>
+      <c r="T332" s="3"/>
       <c r="U332" s="3"/>
-      <c r="V332" s="5"/>
+      <c r="V332" s="3"/>
       <c r="W332" s="3"/>
-      <c r="X332" s="5"/>
+      <c r="X332" s="3"/>
       <c r="Y332" s="3"/>
-      <c r="Z332" s="5"/>
+      <c r="Z332" s="3"/>
       <c r="AA332" s="3"/>
-      <c r="AB332" s="5"/>
+      <c r="AB332" s="3"/>
       <c r="AC332" s="3"/>
       <c r="AD332" s="3"/>
       <c r="AE332" s="3"/>

--- a/ErgoLux/localization/Marathi (mr-IN) translation.xlsx
+++ b/ErgoLux/localization/Marathi (mr-IN) translation.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44993843R\source\repos\ErgoLux\ErgoLux\localization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001C2293-AA93-4A24-A594-C0089A2D2A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="mr-IN"/>
+    <sheet name="mr-IN" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="559">
   <si>
     <t>File</t>
   </si>
@@ -322,10 +328,6 @@
   </si>
   <si>
     <t>Reset settings?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">सेटिंग्ज रिसेट
-</t>
   </si>
   <si>
     <t>strErrorDeserialize</t>
@@ -1725,12 +1727,23 @@
   <si>
     <t>User interface language</t>
   </si>
+  <si>
+    <t>strWindowPos</t>
+  </si>
+  <si>
+    <t>In "settings" form, tab "User interface"</t>
+  </si>
+  <si>
+    <t>Remember window position and size on startup</t>
+  </si>
+  <si>
+    <t>सेटिंग्ज रिसेट</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1779,54 +1792,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B2:F203" displayName="Tabla13" name="Tabla13" id="1" totalsRowShown="0">
-  <autoFilter ref="B2:F203"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla13" displayName="Tabla13" ref="B2:F204" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="B2:F204" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn name="File" id="1"/>
-    <tableColumn name="Key" id="2"/>
-    <tableColumn name="Comment" id="3"/>
-    <tableColumn name="English" id="4"/>
-    <tableColumn name="Marathi (mr-IN)" id="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="File" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Key" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Comment" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="English" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Marathi (mr-IN)" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1835,10 +1873,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1876,71 +1914,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1968,7 +2006,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1991,11 +2029,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2004,13 +2042,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2020,7 +2058,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2029,7 +2067,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2038,7 +2076,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2046,10 +2084,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2114,53 +2152,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AH332"/>
+  <dimension ref="A1:AH333"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="36.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="34.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="61.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="60.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="14.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="6" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="61.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="1" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2196,7 +2232,7 @@
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2242,21 +2278,21 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="3" spans="1:34" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="2"/>
@@ -2288,21 +2324,21 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="47.25">
+    <row r="4" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="2"/>
@@ -2334,21 +2370,21 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+    <row r="5" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="2"/>
@@ -2380,21 +2416,21 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+    <row r="6" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="2"/>
@@ -2426,21 +2462,21 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+    <row r="7" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="2"/>
@@ -2472,21 +2508,21 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row r="8" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="2"/>
@@ -2518,21 +2554,21 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+    <row r="9" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="2"/>
@@ -2564,21 +2600,21 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
+    <row r="10" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="2"/>
@@ -2610,21 +2646,21 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+    <row r="11" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="2"/>
@@ -2656,21 +2692,21 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+    <row r="12" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="2"/>
@@ -2702,21 +2738,21 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
+    <row r="13" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="2"/>
@@ -2748,21 +2784,21 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="102.75">
+    <row r="14" spans="1:34" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="2"/>
@@ -2794,21 +2830,21 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="15" spans="1:34" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="2"/>
@@ -2840,21 +2876,21 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="16" spans="1:34" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="5" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="2"/>
@@ -2886,19 +2922,19 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="17" spans="1:34" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G17" s="2"/>
@@ -2930,19 +2966,19 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="18" spans="1:34" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="2"/>
@@ -2974,19 +3010,19 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="19" spans="1:34" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G19" s="2"/>
@@ -3018,19 +3054,19 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="20" spans="1:34" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G20" s="2"/>
@@ -3062,19 +3098,19 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="21" spans="1:34" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="5" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="2"/>
@@ -3106,19 +3142,19 @@
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="22" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="5" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="2"/>
@@ -3150,19 +3186,19 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="23" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="5" t="s">
         <v>71</v>
       </c>
       <c r="G23" s="2"/>
@@ -3194,19 +3230,19 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="24" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="5" t="s">
         <v>74</v>
       </c>
       <c r="G24" s="2"/>
@@ -3238,19 +3274,21 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="25" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="G25" s="2"/>
@@ -3282,19 +3320,19 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="26" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G26" s="2"/>
@@ -3326,19 +3364,19 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="27" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="5" t="s">
         <v>83</v>
       </c>
       <c r="G27" s="2"/>
@@ -3370,19 +3408,19 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="28" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="5" t="s">
         <v>86</v>
       </c>
       <c r="G28" s="2"/>
@@ -3414,19 +3452,19 @@
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="29" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G29" s="2"/>
@@ -3458,19 +3496,19 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="30" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G30" s="2"/>
@@ -3502,19 +3540,19 @@
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="31" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="5" t="s">
         <v>95</v>
       </c>
       <c r="G31" s="2"/>
@@ -3546,21 +3584,21 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="32" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F32" s="5"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3590,20 +3628,20 @@
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="33" spans="1:34" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>101</v>
+      <c r="B33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -3634,20 +3672,20 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="34" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>104</v>
+      <c r="B34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>558</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3678,20 +3716,20 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="35" spans="1:34" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>107</v>
+      <c r="B35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3722,20 +3760,20 @@
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="36" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>110</v>
+      <c r="B36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -3766,20 +3804,20 @@
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="37" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>113</v>
+      <c r="B37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -3810,20 +3848,20 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="38" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>116</v>
+      <c r="B38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -3854,20 +3892,20 @@
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="39" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>119</v>
+      <c r="B39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -3898,20 +3936,20 @@
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="40" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>122</v>
+      <c r="B40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -3942,20 +3980,20 @@
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="41" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>125</v>
+      <c r="B41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -3986,20 +4024,20 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="42" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>128</v>
+      <c r="B42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -4030,20 +4068,20 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="43" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>131</v>
+      <c r="B43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -4074,20 +4112,20 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="44" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>134</v>
+      <c r="B44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -4118,20 +4156,20 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="45" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>137</v>
+      <c r="B45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -4162,20 +4200,20 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="46" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>140</v>
+      <c r="B46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -4206,20 +4244,20 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="47" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>143</v>
+      <c r="B47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -4250,20 +4288,20 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="48" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>146</v>
+      <c r="B48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -4294,20 +4332,20 @@
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="49" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>149</v>
+      <c r="B49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -4338,20 +4376,20 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="50" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>151</v>
+      <c r="B50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -4382,20 +4420,20 @@
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="51" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>154</v>
+      <c r="B51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -4426,20 +4464,20 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="52" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>157</v>
+      <c r="B52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -4470,20 +4508,20 @@
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="53" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>160</v>
+      <c r="B53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -4514,20 +4552,20 @@
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="54" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>163</v>
+      <c r="B54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -4558,20 +4596,20 @@
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="55" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>166</v>
+      <c r="B55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -4602,20 +4640,20 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="56" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>169</v>
+      <c r="B56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -4646,20 +4684,20 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="57" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>172</v>
+      <c r="B57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -4690,20 +4728,20 @@
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="58" spans="1:34" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>175</v>
+      <c r="B58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -4734,20 +4772,20 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="59" spans="1:34" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>178</v>
+      <c r="B59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -4778,20 +4816,20 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="60" spans="1:34" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>181</v>
+      <c r="B60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -4822,20 +4860,20 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="21" customFormat="1" s="1">
+    <row r="61" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>184</v>
+      <c r="B61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -4866,19 +4904,21 @@
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="62" spans="1:34" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F62" s="2"/>
+      <c r="B62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -4908,21 +4948,19 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="63" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="B63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="5"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -4952,20 +4990,20 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="64" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>192</v>
+      <c r="B64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -4996,20 +5034,20 @@
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="65" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>195</v>
+      <c r="B65" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -5040,20 +5078,20 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="66" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>197</v>
+      <c r="B66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -5084,20 +5122,20 @@
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="67" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>200</v>
+      <c r="B67" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -5128,20 +5166,20 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="68" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>203</v>
+      <c r="B68" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -5172,20 +5210,20 @@
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="69" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>206</v>
+      <c r="B69" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -5216,20 +5254,20 @@
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="70" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>209</v>
+      <c r="B70" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -5260,20 +5298,20 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="71" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>212</v>
+      <c r="B71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -5304,20 +5342,20 @@
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="72" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>215</v>
+      <c r="B72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -5348,20 +5386,20 @@
       <c r="AG72" s="2"/>
       <c r="AH72" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="73" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>218</v>
+      <c r="B73" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -5392,20 +5430,20 @@
       <c r="AG73" s="2"/>
       <c r="AH73" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="74" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>221</v>
+      <c r="B74" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -5436,20 +5474,20 @@
       <c r="AG74" s="2"/>
       <c r="AH74" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="75" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>224</v>
+      <c r="B75" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -5480,20 +5518,20 @@
       <c r="AG75" s="2"/>
       <c r="AH75" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="76" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>226</v>
+      <c r="B76" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -5524,20 +5562,20 @@
       <c r="AG76" s="2"/>
       <c r="AH76" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="77" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>229</v>
+      <c r="B77" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -5568,20 +5606,20 @@
       <c r="AG77" s="2"/>
       <c r="AH77" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="78" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>232</v>
+      <c r="B78" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -5612,20 +5650,20 @@
       <c r="AG78" s="2"/>
       <c r="AH78" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="79" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>235</v>
+      <c r="B79" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -5656,20 +5694,20 @@
       <c r="AG79" s="2"/>
       <c r="AH79" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="80" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>238</v>
+      <c r="B80" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -5700,20 +5738,20 @@
       <c r="AG80" s="2"/>
       <c r="AH80" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="81" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>241</v>
+      <c r="B81" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -5744,20 +5782,20 @@
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="82" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>244</v>
+      <c r="B82" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -5788,20 +5826,20 @@
       <c r="AG82" s="2"/>
       <c r="AH82" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="83" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>247</v>
+      <c r="B83" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -5832,20 +5870,20 @@
       <c r="AG83" s="2"/>
       <c r="AH83" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="84" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>250</v>
+      <c r="B84" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -5876,20 +5914,20 @@
       <c r="AG84" s="2"/>
       <c r="AH84" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="85" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>253</v>
+      <c r="B85" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -5920,20 +5958,20 @@
       <c r="AG85" s="2"/>
       <c r="AH85" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="86" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>256</v>
+      <c r="B86" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -5964,20 +6002,20 @@
       <c r="AG86" s="2"/>
       <c r="AH86" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="87" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>259</v>
+      <c r="B87" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -6008,20 +6046,20 @@
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="88" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>262</v>
+      <c r="B88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -6052,20 +6090,20 @@
       <c r="AG88" s="2"/>
       <c r="AH88" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="89" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>265</v>
+      <c r="B89" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -6096,20 +6134,20 @@
       <c r="AG89" s="2"/>
       <c r="AH89" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="90" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>267</v>
+      <c r="B90" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -6140,20 +6178,20 @@
       <c r="AG90" s="2"/>
       <c r="AH90" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="91" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>270</v>
+      <c r="B91" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -6184,20 +6222,20 @@
       <c r="AG91" s="2"/>
       <c r="AH91" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="92" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>273</v>
+      <c r="B92" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -6228,20 +6266,20 @@
       <c r="AG92" s="2"/>
       <c r="AH92" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="93" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>276</v>
+      <c r="B93" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -6272,20 +6310,20 @@
       <c r="AG93" s="2"/>
       <c r="AH93" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="94" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>279</v>
+      <c r="B94" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -6316,20 +6354,20 @@
       <c r="AG94" s="2"/>
       <c r="AH94" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="95" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>282</v>
+      <c r="B95" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -6360,20 +6398,20 @@
       <c r="AG95" s="2"/>
       <c r="AH95" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="96" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>285</v>
+      <c r="B96" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -6404,20 +6442,20 @@
       <c r="AG96" s="2"/>
       <c r="AH96" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="97" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>288</v>
+      <c r="B97" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -6448,20 +6486,20 @@
       <c r="AG97" s="2"/>
       <c r="AH97" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="98" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>291</v>
+      <c r="B98" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -6492,20 +6530,20 @@
       <c r="AG98" s="2"/>
       <c r="AH98" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="99" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>294</v>
+      <c r="B99" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -6536,20 +6574,20 @@
       <c r="AG99" s="2"/>
       <c r="AH99" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="100" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>297</v>
+      <c r="B100" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>293</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -6580,20 +6618,20 @@
       <c r="AG100" s="2"/>
       <c r="AH100" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="101" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
-      <c r="B101" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>300</v>
+      <c r="B101" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -6624,20 +6662,20 @@
       <c r="AG101" s="2"/>
       <c r="AH101" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="102" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
-      <c r="B102" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>303</v>
+      <c r="B102" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -6668,20 +6706,20 @@
       <c r="AG102" s="2"/>
       <c r="AH102" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="103" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
-      <c r="B103" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>306</v>
+      <c r="B103" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -6712,20 +6750,20 @@
       <c r="AG103" s="2"/>
       <c r="AH103" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="104" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
-      <c r="B104" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>309</v>
+      <c r="B104" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -6756,20 +6794,20 @@
       <c r="AG104" s="2"/>
       <c r="AH104" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="105" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
-      <c r="B105" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>312</v>
+      <c r="B105" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -6800,20 +6838,20 @@
       <c r="AG105" s="2"/>
       <c r="AH105" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="106" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
-      <c r="B106" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>137</v>
+      <c r="B106" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -6844,20 +6882,20 @@
       <c r="AG106" s="2"/>
       <c r="AH106" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="107" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
-      <c r="B107" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>317</v>
+      <c r="B107" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
@@ -6888,20 +6926,20 @@
       <c r="AG107" s="2"/>
       <c r="AH107" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="108" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
-      <c r="B108" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>320</v>
+      <c r="B108" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -6932,20 +6970,20 @@
       <c r="AG108" s="2"/>
       <c r="AH108" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="109" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
-      <c r="B109" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>323</v>
+      <c r="B109" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -6976,20 +7014,20 @@
       <c r="AG109" s="2"/>
       <c r="AH109" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="110" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
-      <c r="B110" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>326</v>
+      <c r="B110" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
@@ -7020,20 +7058,20 @@
       <c r="AG110" s="2"/>
       <c r="AH110" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="111" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
-      <c r="B111" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>329</v>
+      <c r="B111" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -7064,20 +7102,20 @@
       <c r="AG111" s="2"/>
       <c r="AH111" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="60.75" customFormat="1" s="1">
+    <row r="112" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
-      <c r="B112" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>332</v>
+      <c r="B112" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
@@ -7108,19 +7146,21 @@
       <c r="AG112" s="2"/>
       <c r="AH112" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row r="113" spans="1:34" s="1" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
-      <c r="B113" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F113" s="2"/>
+      <c r="B113" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>331</v>
+      </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -7150,19 +7190,19 @@
       <c r="AG113" s="2"/>
       <c r="AH113" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="114" spans="1:34" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
-      <c r="B114" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F114" s="2"/>
+      <c r="B114" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F114" s="5"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -7192,19 +7232,19 @@
       <c r="AG114" s="2"/>
       <c r="AH114" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="115" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
-      <c r="B115" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F115" s="2"/>
+      <c r="B115" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F115" s="5"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -7234,19 +7274,19 @@
       <c r="AG115" s="2"/>
       <c r="AH115" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="33.75" customFormat="1" s="1">
+    <row r="116" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
-      <c r="B116" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F116" s="2"/>
+      <c r="B116" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F116" s="5"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -7276,21 +7316,19 @@
       <c r="AG116" s="2"/>
       <c r="AH116" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="117" spans="1:34" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
-      <c r="B117" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>343</v>
-      </c>
+      <c r="B117" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F117" s="5"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -7320,20 +7358,20 @@
       <c r="AG117" s="2"/>
       <c r="AH117" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="118" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
-      <c r="B118" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>346</v>
+      <c r="B118" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
@@ -7364,20 +7402,20 @@
       <c r="AG118" s="2"/>
       <c r="AH118" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="119" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
-      <c r="B119" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>349</v>
+      <c r="B119" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -7408,20 +7446,20 @@
       <c r="AG119" s="2"/>
       <c r="AH119" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row r="120" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
-      <c r="B120" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>352</v>
+      <c r="B120" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -7452,20 +7490,20 @@
       <c r="AG120" s="2"/>
       <c r="AH120" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="121" spans="1:34" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
-      <c r="B121" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>355</v>
+      <c r="B121" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -7496,20 +7534,20 @@
       <c r="AG121" s="2"/>
       <c r="AH121" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="122" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
-      <c r="B122" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>358</v>
+      <c r="B122" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -7540,20 +7578,20 @@
       <c r="AG122" s="2"/>
       <c r="AH122" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="123" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
-      <c r="B123" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>361</v>
+      <c r="B123" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>357</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -7584,19 +7622,21 @@
       <c r="AG123" s="2"/>
       <c r="AH123" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row r="124" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
-      <c r="B124" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F124" s="2"/>
+      <c r="B124" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -7626,19 +7666,19 @@
       <c r="AG124" s="2"/>
       <c r="AH124" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="125" spans="1:34" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
-      <c r="B125" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F125" s="2"/>
+      <c r="B125" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F125" s="5"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -7668,19 +7708,19 @@
       <c r="AG125" s="2"/>
       <c r="AH125" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="126" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
-      <c r="B126" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F126" s="2"/>
+      <c r="B126" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F126" s="5"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -7710,19 +7750,19 @@
       <c r="AG126" s="2"/>
       <c r="AH126" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="127" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
-      <c r="B127" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F127" s="2"/>
+      <c r="B127" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F127" s="5"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -7752,21 +7792,19 @@
       <c r="AG127" s="2"/>
       <c r="AH127" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row r="128" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
-      <c r="B128" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>371</v>
-      </c>
+      <c r="B128" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F128" s="5"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -7796,20 +7834,20 @@
       <c r="AG128" s="2"/>
       <c r="AH128" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="129" spans="1:34" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
-      <c r="B129" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>374</v>
+      <c r="B129" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>370</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -7840,20 +7878,20 @@
       <c r="AG129" s="2"/>
       <c r="AH129" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row r="130" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
-      <c r="B130" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>377</v>
+      <c r="B130" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
@@ -7884,20 +7922,20 @@
       <c r="AG130" s="2"/>
       <c r="AH130" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="131" spans="1:34" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
-      <c r="B131" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>380</v>
+      <c r="B131" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
@@ -7928,20 +7966,20 @@
       <c r="AG131" s="2"/>
       <c r="AH131" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="75" customFormat="1" s="1">
+    <row r="132" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
-      <c r="B132" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>382</v>
+      <c r="B132" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
@@ -7972,20 +8010,20 @@
       <c r="AG132" s="2"/>
       <c r="AH132" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="133" spans="1:34" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
-      <c r="B133" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>107</v>
+      <c r="B133" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
@@ -8016,20 +8054,20 @@
       <c r="AG133" s="2"/>
       <c r="AH133" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="134" spans="1:34" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
-      <c r="B134" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>386</v>
+      <c r="B134" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
@@ -8060,20 +8098,20 @@
       <c r="AG134" s="2"/>
       <c r="AH134" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="135" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
-      <c r="B135" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>389</v>
+      <c r="B135" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>385</v>
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
@@ -8104,20 +8142,20 @@
       <c r="AG135" s="2"/>
       <c r="AH135" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="136" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
-      <c r="B136" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>392</v>
+      <c r="B136" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>388</v>
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
@@ -8148,20 +8186,20 @@
       <c r="AG136" s="2"/>
       <c r="AH136" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="137" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
-      <c r="B137" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>395</v>
+      <c r="B137" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
@@ -8192,20 +8230,20 @@
       <c r="AG137" s="2"/>
       <c r="AH137" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="138" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
-      <c r="B138" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>398</v>
+      <c r="B138" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
@@ -8236,20 +8274,20 @@
       <c r="AG138" s="2"/>
       <c r="AH138" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="139" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
-      <c r="B139" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>401</v>
+      <c r="B139" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D139" s="5"/>
+      <c r="E139" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>397</v>
       </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
@@ -8280,20 +8318,20 @@
       <c r="AG139" s="2"/>
       <c r="AH139" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="37.5" customFormat="1" s="1">
+    <row r="140" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
-      <c r="B140" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>403</v>
+      <c r="B140" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D140" s="5"/>
+      <c r="E140" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
@@ -8324,20 +8362,20 @@
       <c r="AG140" s="2"/>
       <c r="AH140" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="141" spans="1:34" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
-      <c r="B141" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>406</v>
+      <c r="B141" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>402</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
@@ -8368,20 +8406,20 @@
       <c r="AG141" s="2"/>
       <c r="AH141" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="142" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
-      <c r="B142" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>409</v>
+      <c r="B142" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
@@ -8412,20 +8450,20 @@
       <c r="AG142" s="2"/>
       <c r="AH142" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="143" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
-      <c r="B143" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>412</v>
+      <c r="B143" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
@@ -8456,19 +8494,21 @@
       <c r="AG143" s="2"/>
       <c r="AH143" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="144" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
-      <c r="B144" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="F144" s="2"/>
+      <c r="B144" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>411</v>
+      </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -8498,19 +8538,19 @@
       <c r="AG144" s="2"/>
       <c r="AH144" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="145" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
-      <c r="B145" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F145" s="2"/>
+      <c r="B145" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F145" s="5"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -8540,19 +8580,19 @@
       <c r="AG145" s="2"/>
       <c r="AH145" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="146" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
-      <c r="B146" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F146" s="2"/>
+      <c r="B146" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="F146" s="5"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -8582,21 +8622,19 @@
       <c r="AG146" s="2"/>
       <c r="AH146" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="147" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
-      <c r="B147" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>421</v>
-      </c>
+      <c r="B147" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F147" s="5"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -8626,20 +8664,20 @@
       <c r="AG147" s="2"/>
       <c r="AH147" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="148" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
-      <c r="B148" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>424</v>
+      <c r="B148" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -8670,20 +8708,20 @@
       <c r="AG148" s="2"/>
       <c r="AH148" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="149" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
-      <c r="B149" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>427</v>
+      <c r="B149" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>423</v>
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
@@ -8714,19 +8752,21 @@
       <c r="AG149" s="2"/>
       <c r="AH149" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="150" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
-      <c r="B150" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F150" s="2"/>
+      <c r="B150" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>426</v>
+      </c>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -8756,21 +8796,19 @@
       <c r="AG150" s="2"/>
       <c r="AH150" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="151" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
-      <c r="B151" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>432</v>
-      </c>
+      <c r="B151" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F151" s="5"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -8800,20 +8838,20 @@
       <c r="AG151" s="2"/>
       <c r="AH151" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="152" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
-      <c r="B152" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>435</v>
+      <c r="B152" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
@@ -8844,20 +8882,20 @@
       <c r="AG152" s="2"/>
       <c r="AH152" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="153" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
-      <c r="B153" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>427</v>
+      <c r="B153" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
@@ -8888,20 +8926,20 @@
       <c r="AG153" s="2"/>
       <c r="AH153" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="154" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
-      <c r="B154" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>89</v>
+      <c r="B154" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
@@ -8932,20 +8970,20 @@
       <c r="AG154" s="2"/>
       <c r="AH154" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="155" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
-      <c r="B155" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>440</v>
+      <c r="B155" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
@@ -8976,20 +9014,20 @@
       <c r="AG155" s="2"/>
       <c r="AH155" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="156" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
-      <c r="B156" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>427</v>
+      <c r="B156" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
@@ -9020,19 +9058,21 @@
       <c r="AG156" s="2"/>
       <c r="AH156" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="157" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
-      <c r="B157" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="F157" s="2"/>
+      <c r="B157" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>426</v>
+      </c>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -9062,21 +9102,19 @@
       <c r="AG157" s="2"/>
       <c r="AH157" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="158" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
-      <c r="B158" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>445</v>
-      </c>
+      <c r="B158" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="F158" s="5"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -9106,20 +9144,20 @@
       <c r="AG158" s="2"/>
       <c r="AH158" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="159" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
-      <c r="B159" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>448</v>
+      <c r="B159" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
@@ -9150,20 +9188,20 @@
       <c r="AG159" s="2"/>
       <c r="AH159" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="160" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
-      <c r="B160" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>451</v>
+      <c r="B160" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
@@ -9194,20 +9232,20 @@
       <c r="AG160" s="2"/>
       <c r="AH160" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="161" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
-      <c r="B161" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>454</v>
+      <c r="B161" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>450</v>
       </c>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
@@ -9238,19 +9276,21 @@
       <c r="AG161" s="2"/>
       <c r="AH161" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="162" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
-      <c r="B162" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F162" s="5"/>
+      <c r="B162" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>453</v>
+      </c>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -9280,19 +9320,19 @@
       <c r="AG162" s="2"/>
       <c r="AH162" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="163" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
-      <c r="B163" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F163" s="5"/>
+      <c r="B163" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F163" s="8"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
@@ -9322,21 +9362,19 @@
       <c r="AG163" s="2"/>
       <c r="AH163" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="164" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
-      <c r="B164" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>460</v>
-      </c>
+      <c r="B164" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F164" s="8"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
@@ -9366,20 +9404,20 @@
       <c r="AG164" s="2"/>
       <c r="AH164" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="165" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
-      <c r="B165" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>463</v>
+      <c r="B165" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
@@ -9410,20 +9448,20 @@
       <c r="AG165" s="2"/>
       <c r="AH165" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="166" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
-      <c r="B166" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>466</v>
+      <c r="B166" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
@@ -9454,20 +9492,20 @@
       <c r="AG166" s="2"/>
       <c r="AH166" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="167" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
-      <c r="B167" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>469</v>
+      <c r="B167" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>465</v>
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
@@ -9498,20 +9536,20 @@
       <c r="AG167" s="2"/>
       <c r="AH167" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="168" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
-      <c r="B168" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>471</v>
+      <c r="B168" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>468</v>
       </c>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
@@ -9542,19 +9580,21 @@
       <c r="AG168" s="2"/>
       <c r="AH168" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="169" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
-      <c r="B169" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F169" s="2"/>
+      <c r="B169" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -9584,21 +9624,19 @@
       <c r="AG169" s="2"/>
       <c r="AH169" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="170" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
-      <c r="B170" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>475</v>
-      </c>
+      <c r="B170" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F170" s="5"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -9628,20 +9666,20 @@
       <c r="AG170" s="2"/>
       <c r="AH170" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="171" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
-      <c r="B171" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>478</v>
+      <c r="B171" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>474</v>
       </c>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
@@ -9672,20 +9710,20 @@
       <c r="AG171" s="2"/>
       <c r="AH171" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="172" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
-      <c r="B172" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>481</v>
+      <c r="B172" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>477</v>
       </c>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
@@ -9716,20 +9754,20 @@
       <c r="AG172" s="2"/>
       <c r="AH172" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="173" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
-      <c r="B173" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>212</v>
+      <c r="B173" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
@@ -9760,20 +9798,20 @@
       <c r="AG173" s="2"/>
       <c r="AH173" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="174" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
-      <c r="B174" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>485</v>
+      <c r="B174" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
@@ -9804,20 +9842,20 @@
       <c r="AG174" s="2"/>
       <c r="AH174" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="175" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
-      <c r="B175" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>488</v>
+      <c r="B175" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>484</v>
       </c>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
@@ -9848,20 +9886,20 @@
       <c r="AG175" s="2"/>
       <c r="AH175" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="176" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
-      <c r="B176" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>490</v>
+      <c r="B176" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
@@ -9892,20 +9930,20 @@
       <c r="AG176" s="2"/>
       <c r="AH176" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="177" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
-      <c r="B177" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>493</v>
+      <c r="B177" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>489</v>
       </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
@@ -9936,20 +9974,20 @@
       <c r="AG177" s="2"/>
       <c r="AH177" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="178" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
-      <c r="B178" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>481</v>
+      <c r="B178" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
@@ -9980,20 +10018,20 @@
       <c r="AG178" s="2"/>
       <c r="AH178" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="179" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
-      <c r="B179" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>497</v>
+      <c r="B179" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>480</v>
       </c>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
@@ -10024,20 +10062,20 @@
       <c r="AG179" s="2"/>
       <c r="AH179" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="180" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
-      <c r="B180" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>500</v>
+      <c r="B180" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
@@ -10068,20 +10106,20 @@
       <c r="AG180" s="2"/>
       <c r="AH180" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="181" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
-      <c r="B181" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>503</v>
+      <c r="B181" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
@@ -10112,20 +10150,20 @@
       <c r="AG181" s="2"/>
       <c r="AH181" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="182" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
-      <c r="B182" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>505</v>
+      <c r="B182" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
@@ -10156,20 +10194,20 @@
       <c r="AG182" s="2"/>
       <c r="AH182" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="183" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
-      <c r="B183" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>507</v>
+      <c r="B183" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>504</v>
       </c>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
@@ -10200,20 +10238,20 @@
       <c r="AG183" s="2"/>
       <c r="AH183" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="184" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
-      <c r="B184" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>510</v>
+      <c r="B184" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>506</v>
       </c>
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
@@ -10244,20 +10282,20 @@
       <c r="AG184" s="2"/>
       <c r="AH184" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="185" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
-      <c r="B185" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2" t="s">
+      <c r="B185" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F185" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
@@ -10288,20 +10326,20 @@
       <c r="AG185" s="2"/>
       <c r="AH185" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="186" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
-      <c r="B186" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>514</v>
+      <c r="B186" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>509</v>
       </c>
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
@@ -10332,20 +10370,20 @@
       <c r="AG186" s="2"/>
       <c r="AH186" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="187" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
-      <c r="B187" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>517</v>
+      <c r="B187" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>513</v>
       </c>
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
@@ -10376,20 +10414,20 @@
       <c r="AG187" s="2"/>
       <c r="AH187" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="188" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
-      <c r="B188" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D188" s="2"/>
-      <c r="E188" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>520</v>
+      <c r="B188" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>516</v>
       </c>
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
@@ -10420,20 +10458,20 @@
       <c r="AG188" s="2"/>
       <c r="AH188" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="189" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
-      <c r="B189" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>523</v>
+      <c r="B189" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>519</v>
       </c>
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
@@ -10464,20 +10502,20 @@
       <c r="AG189" s="2"/>
       <c r="AH189" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="190" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
-      <c r="B190" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>526</v>
+      <c r="B190" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>522</v>
       </c>
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
@@ -10508,20 +10546,20 @@
       <c r="AG190" s="2"/>
       <c r="AH190" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="191" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
-      <c r="B191" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>529</v>
+      <c r="B191" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>525</v>
       </c>
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
@@ -10552,20 +10590,20 @@
       <c r="AG191" s="2"/>
       <c r="AH191" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="192" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
-      <c r="B192" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>532</v>
+      <c r="B192" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>528</v>
       </c>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
@@ -10596,20 +10634,20 @@
       <c r="AG192" s="2"/>
       <c r="AH192" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="193" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
-      <c r="B193" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>535</v>
+      <c r="B193" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
@@ -10640,20 +10678,20 @@
       <c r="AG193" s="2"/>
       <c r="AH193" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="194" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
-      <c r="B194" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D194" s="2"/>
-      <c r="E194" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>538</v>
+      <c r="B194" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
@@ -10684,20 +10722,20 @@
       <c r="AG194" s="2"/>
       <c r="AH194" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="195" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
-      <c r="B195" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="D195" s="2"/>
-      <c r="E195" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>192</v>
+      <c r="B195" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
@@ -10728,19 +10766,21 @@
       <c r="AG195" s="2"/>
       <c r="AH195" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="196" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
-      <c r="B196" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D196" s="2"/>
-      <c r="E196" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="F196" s="2"/>
+      <c r="B196" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -10770,21 +10810,19 @@
       <c r="AG196" s="2"/>
       <c r="AH196" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="197" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
-      <c r="B197" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D197" s="2"/>
-      <c r="E197" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>520</v>
-      </c>
+      <c r="B197" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F197" s="5"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
@@ -10814,20 +10852,20 @@
       <c r="AG197" s="2"/>
       <c r="AH197" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="198" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
-      <c r="B198" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="D198" s="2"/>
-      <c r="E198" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>523</v>
+      <c r="B198" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>519</v>
       </c>
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
@@ -10858,20 +10896,20 @@
       <c r="AG198" s="2"/>
       <c r="AH198" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="199" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
-      <c r="B199" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>526</v>
+      <c r="B199" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>522</v>
       </c>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
@@ -10902,20 +10940,20 @@
       <c r="AG199" s="2"/>
       <c r="AH199" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="200" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
-      <c r="B200" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>529</v>
+      <c r="B200" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>525</v>
       </c>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
@@ -10946,20 +10984,20 @@
       <c r="AG200" s="2"/>
       <c r="AH200" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="201" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
-      <c r="B201" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F201" s="2" t="s">
-        <v>532</v>
+      <c r="B201" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>528</v>
       </c>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
@@ -10990,19 +11028,21 @@
       <c r="AG201" s="2"/>
       <c r="AH201" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="202" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
-      <c r="B202" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="F202" s="2"/>
+      <c r="B202" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>531</v>
+      </c>
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
@@ -11032,19 +11072,19 @@
       <c r="AG202" s="2"/>
       <c r="AH202" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="203" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
-      <c r="B203" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D203" s="2"/>
-      <c r="E203" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="F203" s="2"/>
+      <c r="B203" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F203" s="5"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
@@ -11074,13 +11114,19 @@
       <c r="AG203" s="2"/>
       <c r="AH203" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="204" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
+      <c r="B204" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F204" s="5"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
@@ -11110,7 +11156,7 @@
       <c r="AG204" s="2"/>
       <c r="AH204" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="205" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -11146,7 +11192,7 @@
       <c r="AG205" s="2"/>
       <c r="AH205" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="206" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -11182,7 +11228,7 @@
       <c r="AG206" s="2"/>
       <c r="AH206" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="207" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -11218,7 +11264,7 @@
       <c r="AG207" s="2"/>
       <c r="AH207" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="208" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -11254,7 +11300,7 @@
       <c r="AG208" s="2"/>
       <c r="AH208" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="209" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -11290,7 +11336,7 @@
       <c r="AG209" s="2"/>
       <c r="AH209" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="210" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -11326,7 +11372,7 @@
       <c r="AG210" s="2"/>
       <c r="AH210" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="211" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -11362,7 +11408,7 @@
       <c r="AG211" s="2"/>
       <c r="AH211" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="212" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -11398,7 +11444,7 @@
       <c r="AG212" s="2"/>
       <c r="AH212" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="213" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -11434,7 +11480,7 @@
       <c r="AG213" s="2"/>
       <c r="AH213" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="214" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -11470,7 +11516,7 @@
       <c r="AG214" s="2"/>
       <c r="AH214" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="215" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -11506,7 +11552,7 @@
       <c r="AG215" s="2"/>
       <c r="AH215" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="216" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -11542,7 +11588,7 @@
       <c r="AG216" s="2"/>
       <c r="AH216" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="217" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -11578,7 +11624,7 @@
       <c r="AG217" s="2"/>
       <c r="AH217" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="218" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -11614,7 +11660,7 @@
       <c r="AG218" s="2"/>
       <c r="AH218" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="219" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -11650,7 +11696,7 @@
       <c r="AG219" s="2"/>
       <c r="AH219" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="220" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -11686,7 +11732,7 @@
       <c r="AG220" s="2"/>
       <c r="AH220" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="221" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -11722,7 +11768,7 @@
       <c r="AG221" s="2"/>
       <c r="AH221" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="222" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -11758,7 +11804,7 @@
       <c r="AG222" s="2"/>
       <c r="AH222" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="223" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -11794,7 +11840,7 @@
       <c r="AG223" s="2"/>
       <c r="AH223" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="224" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -11830,7 +11876,7 @@
       <c r="AG224" s="2"/>
       <c r="AH224" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="225" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -11866,7 +11912,7 @@
       <c r="AG225" s="2"/>
       <c r="AH225" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="226" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -11902,7 +11948,7 @@
       <c r="AG226" s="2"/>
       <c r="AH226" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="227" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -11938,7 +11984,7 @@
       <c r="AG227" s="2"/>
       <c r="AH227" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="228" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -11974,7 +12020,7 @@
       <c r="AG228" s="2"/>
       <c r="AH228" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="229" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -12010,7 +12056,7 @@
       <c r="AG229" s="2"/>
       <c r="AH229" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="230" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -12046,7 +12092,7 @@
       <c r="AG230" s="2"/>
       <c r="AH230" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="231" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -12082,7 +12128,7 @@
       <c r="AG231" s="2"/>
       <c r="AH231" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="232" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -12118,7 +12164,7 @@
       <c r="AG232" s="2"/>
       <c r="AH232" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="233" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -12154,7 +12200,7 @@
       <c r="AG233" s="2"/>
       <c r="AH233" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="234" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -12190,7 +12236,7 @@
       <c r="AG234" s="2"/>
       <c r="AH234" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="235" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -12226,7 +12272,7 @@
       <c r="AG235" s="2"/>
       <c r="AH235" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="236" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -12262,7 +12308,7 @@
       <c r="AG236" s="2"/>
       <c r="AH236" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="237" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -12298,7 +12344,7 @@
       <c r="AG237" s="2"/>
       <c r="AH237" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="238" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -12334,7 +12380,7 @@
       <c r="AG238" s="2"/>
       <c r="AH238" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="239" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -12370,7 +12416,7 @@
       <c r="AG239" s="2"/>
       <c r="AH239" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="240" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -12406,7 +12452,7 @@
       <c r="AG240" s="2"/>
       <c r="AH240" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="241" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -12442,7 +12488,7 @@
       <c r="AG241" s="2"/>
       <c r="AH241" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="242" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -12478,7 +12524,7 @@
       <c r="AG242" s="2"/>
       <c r="AH242" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="243" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -12514,7 +12560,7 @@
       <c r="AG243" s="2"/>
       <c r="AH243" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="244" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -12550,7 +12596,7 @@
       <c r="AG244" s="2"/>
       <c r="AH244" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="245" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -12586,7 +12632,7 @@
       <c r="AG245" s="2"/>
       <c r="AH245" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="246" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -12622,7 +12668,7 @@
       <c r="AG246" s="2"/>
       <c r="AH246" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="247" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -12658,7 +12704,7 @@
       <c r="AG247" s="2"/>
       <c r="AH247" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="248" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -12694,7 +12740,7 @@
       <c r="AG248" s="2"/>
       <c r="AH248" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="249" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -12730,7 +12776,7 @@
       <c r="AG249" s="2"/>
       <c r="AH249" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="250" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -12766,7 +12812,7 @@
       <c r="AG250" s="2"/>
       <c r="AH250" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="251" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -12802,7 +12848,7 @@
       <c r="AG251" s="2"/>
       <c r="AH251" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="252" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -12838,7 +12884,7 @@
       <c r="AG252" s="2"/>
       <c r="AH252" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="253" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -12874,7 +12920,7 @@
       <c r="AG253" s="2"/>
       <c r="AH253" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="254" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -12910,7 +12956,7 @@
       <c r="AG254" s="2"/>
       <c r="AH254" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="255" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -12946,7 +12992,7 @@
       <c r="AG255" s="2"/>
       <c r="AH255" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="256" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -12982,7 +13028,7 @@
       <c r="AG256" s="2"/>
       <c r="AH256" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="257" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -13018,7 +13064,7 @@
       <c r="AG257" s="2"/>
       <c r="AH257" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="258" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -13054,7 +13100,7 @@
       <c r="AG258" s="2"/>
       <c r="AH258" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="259" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -13090,7 +13136,7 @@
       <c r="AG259" s="2"/>
       <c r="AH259" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="260" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -13126,7 +13172,7 @@
       <c r="AG260" s="2"/>
       <c r="AH260" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="261" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -13162,7 +13208,7 @@
       <c r="AG261" s="2"/>
       <c r="AH261" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="262" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -13198,7 +13244,7 @@
       <c r="AG262" s="2"/>
       <c r="AH262" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="263" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -13234,7 +13280,7 @@
       <c r="AG263" s="2"/>
       <c r="AH263" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="264" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -13270,7 +13316,7 @@
       <c r="AG264" s="2"/>
       <c r="AH264" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="265" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -13306,7 +13352,7 @@
       <c r="AG265" s="2"/>
       <c r="AH265" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="266" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -13342,7 +13388,7 @@
       <c r="AG266" s="2"/>
       <c r="AH266" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="267" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -13378,7 +13424,7 @@
       <c r="AG267" s="2"/>
       <c r="AH267" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="268" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -13414,7 +13460,7 @@
       <c r="AG268" s="2"/>
       <c r="AH268" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="269" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -13450,7 +13496,7 @@
       <c r="AG269" s="2"/>
       <c r="AH269" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="270" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -13486,7 +13532,7 @@
       <c r="AG270" s="2"/>
       <c r="AH270" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="271" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -13522,7 +13568,7 @@
       <c r="AG271" s="2"/>
       <c r="AH271" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="272" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -13558,7 +13604,7 @@
       <c r="AG272" s="2"/>
       <c r="AH272" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="273" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -13594,7 +13640,7 @@
       <c r="AG273" s="2"/>
       <c r="AH273" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="274" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -13630,7 +13676,7 @@
       <c r="AG274" s="2"/>
       <c r="AH274" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="275" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -13666,7 +13712,7 @@
       <c r="AG275" s="2"/>
       <c r="AH275" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="276" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -13702,7 +13748,7 @@
       <c r="AG276" s="2"/>
       <c r="AH276" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="277" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -13738,7 +13784,7 @@
       <c r="AG277" s="2"/>
       <c r="AH277" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="278" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -13774,7 +13820,7 @@
       <c r="AG278" s="2"/>
       <c r="AH278" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="279" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -13810,7 +13856,7 @@
       <c r="AG279" s="2"/>
       <c r="AH279" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="280" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -13846,7 +13892,7 @@
       <c r="AG280" s="2"/>
       <c r="AH280" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="281" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -13882,7 +13928,7 @@
       <c r="AG281" s="2"/>
       <c r="AH281" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="282" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -13918,7 +13964,7 @@
       <c r="AG282" s="2"/>
       <c r="AH282" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="283" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -13954,7 +14000,7 @@
       <c r="AG283" s="2"/>
       <c r="AH283" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="284" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -13990,7 +14036,7 @@
       <c r="AG284" s="2"/>
       <c r="AH284" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="285" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -14026,7 +14072,7 @@
       <c r="AG285" s="2"/>
       <c r="AH285" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="286" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -14062,7 +14108,7 @@
       <c r="AG286" s="2"/>
       <c r="AH286" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="287" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -14098,7 +14144,7 @@
       <c r="AG287" s="2"/>
       <c r="AH287" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="288" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -14134,7 +14180,7 @@
       <c r="AG288" s="2"/>
       <c r="AH288" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="289" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -14170,7 +14216,7 @@
       <c r="AG289" s="2"/>
       <c r="AH289" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="290" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -14206,7 +14252,7 @@
       <c r="AG290" s="2"/>
       <c r="AH290" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="291" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -14242,7 +14288,7 @@
       <c r="AG291" s="2"/>
       <c r="AH291" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="292" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -14278,7 +14324,7 @@
       <c r="AG292" s="2"/>
       <c r="AH292" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="293" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -14314,7 +14360,7 @@
       <c r="AG293" s="2"/>
       <c r="AH293" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="294" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -14350,7 +14396,7 @@
       <c r="AG294" s="2"/>
       <c r="AH294" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="295" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -14386,7 +14432,7 @@
       <c r="AG295" s="2"/>
       <c r="AH295" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="296" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -14422,7 +14468,7 @@
       <c r="AG296" s="2"/>
       <c r="AH296" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="297" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -14458,7 +14504,7 @@
       <c r="AG297" s="2"/>
       <c r="AH297" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="298" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -14494,7 +14540,7 @@
       <c r="AG298" s="2"/>
       <c r="AH298" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="299" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -14530,7 +14576,7 @@
       <c r="AG299" s="2"/>
       <c r="AH299" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="300" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -14566,7 +14612,7 @@
       <c r="AG300" s="2"/>
       <c r="AH300" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="301" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -14602,7 +14648,7 @@
       <c r="AG301" s="2"/>
       <c r="AH301" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="302" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -14638,7 +14684,7 @@
       <c r="AG302" s="2"/>
       <c r="AH302" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="303" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -14674,7 +14720,7 @@
       <c r="AG303" s="2"/>
       <c r="AH303" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="304" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -14710,7 +14756,7 @@
       <c r="AG304" s="2"/>
       <c r="AH304" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="305" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -14746,7 +14792,7 @@
       <c r="AG305" s="2"/>
       <c r="AH305" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="306" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -14782,7 +14828,7 @@
       <c r="AG306" s="2"/>
       <c r="AH306" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="307" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -14818,7 +14864,7 @@
       <c r="AG307" s="2"/>
       <c r="AH307" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="308" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -14854,7 +14900,7 @@
       <c r="AG308" s="2"/>
       <c r="AH308" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="309" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -14890,7 +14936,7 @@
       <c r="AG309" s="2"/>
       <c r="AH309" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="310" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -14926,7 +14972,7 @@
       <c r="AG310" s="2"/>
       <c r="AH310" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="311" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -14962,7 +15008,7 @@
       <c r="AG311" s="2"/>
       <c r="AH311" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="312" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -14998,7 +15044,7 @@
       <c r="AG312" s="2"/>
       <c r="AH312" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="313" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -15034,7 +15080,7 @@
       <c r="AG313" s="2"/>
       <c r="AH313" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="314" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -15070,7 +15116,7 @@
       <c r="AG314" s="2"/>
       <c r="AH314" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="315" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -15106,7 +15152,7 @@
       <c r="AG315" s="2"/>
       <c r="AH315" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="316" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -15142,7 +15188,7 @@
       <c r="AG316" s="2"/>
       <c r="AH316" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="317" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -15178,7 +15224,7 @@
       <c r="AG317" s="2"/>
       <c r="AH317" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="318" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -15214,7 +15260,7 @@
       <c r="AG318" s="2"/>
       <c r="AH318" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="319" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -15250,7 +15296,7 @@
       <c r="AG319" s="2"/>
       <c r="AH319" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="320" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -15286,7 +15332,7 @@
       <c r="AG320" s="2"/>
       <c r="AH320" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="321" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -15322,7 +15368,7 @@
       <c r="AG321" s="2"/>
       <c r="AH321" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="322" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -15358,7 +15404,7 @@
       <c r="AG322" s="2"/>
       <c r="AH322" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="323" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -15394,7 +15440,7 @@
       <c r="AG323" s="2"/>
       <c r="AH323" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="324" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -15430,7 +15476,7 @@
       <c r="AG324" s="2"/>
       <c r="AH324" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="325" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -15466,7 +15512,7 @@
       <c r="AG325" s="2"/>
       <c r="AH325" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="326" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -15502,7 +15548,7 @@
       <c r="AG326" s="2"/>
       <c r="AH326" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="327" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -15538,7 +15584,7 @@
       <c r="AG327" s="2"/>
       <c r="AH327" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="328" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -15574,7 +15620,7 @@
       <c r="AG328" s="2"/>
       <c r="AH328" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="329" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -15610,7 +15656,7 @@
       <c r="AG329" s="2"/>
       <c r="AH329" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="330" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -15646,7 +15692,7 @@
       <c r="AG330" s="2"/>
       <c r="AH330" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="331" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -15682,7 +15728,7 @@
       <c r="AG331" s="2"/>
       <c r="AH331" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row r="332" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -15718,6 +15764,42 @@
       <c r="AG332" s="2"/>
       <c r="AH332" s="2"/>
     </row>
+    <row r="333" spans="1:34" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
+      <c r="G333" s="2"/>
+      <c r="H333" s="2"/>
+      <c r="I333" s="2"/>
+      <c r="J333" s="2"/>
+      <c r="K333" s="2"/>
+      <c r="L333" s="2"/>
+      <c r="M333" s="2"/>
+      <c r="N333" s="2"/>
+      <c r="O333" s="2"/>
+      <c r="P333" s="2"/>
+      <c r="Q333" s="2"/>
+      <c r="R333" s="2"/>
+      <c r="S333" s="2"/>
+      <c r="T333" s="2"/>
+      <c r="U333" s="2"/>
+      <c r="V333" s="2"/>
+      <c r="W333" s="2"/>
+      <c r="X333" s="2"/>
+      <c r="Y333" s="2"/>
+      <c r="Z333" s="2"/>
+      <c r="AA333" s="2"/>
+      <c r="AB333" s="2"/>
+      <c r="AC333" s="2"/>
+      <c r="AD333" s="2"/>
+      <c r="AE333" s="2"/>
+      <c r="AF333" s="2"/>
+      <c r="AG333" s="2"/>
+      <c r="AH333" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
